--- a/collvoid-melodic/res/log_collvoid local planner/logs_benchmark_collvoid local planner.xlsx
+++ b/collvoid-melodic/res/log_collvoid local planner/logs_benchmark_collvoid local planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b228b0386ab212fa/Master/3. Semester/DE-Project/log_collvoid local planner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="8_{AFB057D2-6881-4D87-A984-259073255C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22E96F38-B932-4EEA-879E-4131C794E1DA}"/>
+  <xr:revisionPtr revIDLastSave="585" documentId="8_{AFB057D2-6881-4D87-A984-259073255C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B85CCE9F-2C8B-484F-A14F-DFA25405CA17}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{9AEF315B-5C90-4E7F-ACC3-7F3498417B0B}"/>
+    <workbookView xWindow="29235" yWindow="1335" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="3" xr2:uid="{9AEF315B-5C90-4E7F-ACC3-7F3498417B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="wptime" sheetId="4" r:id="rId1"/>
@@ -393,16 +393,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -416,23 +410,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -441,6 +423,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -839,7 +839,7 @@
             <c:numRef>
               <c:f>'wptime diagrams'!$C$37:$F$37</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>98.212986946090908</c:v>
@@ -883,6 +883,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>waypoint</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> number</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -950,6 +1010,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -985,6 +1105,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1107,7 +1266,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> per Robot - Collvoid Local Planner</a:t>
+              <a:t> Time per Robot - Collvoid Local Planner</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -1485,6 +1644,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>robot name</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1552,6 +1766,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1587,6 +1856,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2729,15 +3037,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>131539</xdr:colOff>
+      <xdr:colOff>135349</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>173707</xdr:rowOff>
+      <xdr:rowOff>169896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>362173</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:colOff>358363</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2767,15 +3075,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
+      <xdr:colOff>25308</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>173627</xdr:rowOff>
+      <xdr:rowOff>169817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:colOff>99059</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3141,7 +3449,7 @@
         <v>1590269808</v>
       </c>
       <c r="B2">
-        <f>IF(C2="[-1.8, 0.0, 0.0]",1,(IF(C2="[0.0, 1.8, 0.0]",2,(IF(C2="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B2:B21" si="0">IF(C2="[-1.8, 0.0, 0.0]",1,(IF(C2="[0.0, 1.8, 0.0]",2,(IF(C2="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -3162,7 +3470,7 @@
         <v>1590269808</v>
       </c>
       <c r="B3">
-        <f>IF(C3="[-1.8, 0.0, 0.0]",1,(IF(C3="[0.0, 1.8, 0.0]",2,(IF(C3="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3183,7 +3491,7 @@
         <v>1590269808</v>
       </c>
       <c r="B4">
-        <f>IF(C4="[-1.8, 0.0, 0.0]",1,(IF(C4="[0.0, 1.8, 0.0]",2,(IF(C4="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -3204,7 +3512,7 @@
         <v>1590269808</v>
       </c>
       <c r="B5">
-        <f>IF(C5="[-1.8, 0.0, 0.0]",1,(IF(C5="[0.0, 1.8, 0.0]",2,(IF(C5="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -3225,7 +3533,7 @@
         <v>1590269808</v>
       </c>
       <c r="B6">
-        <f>IF(C6="[-1.8, 0.0, 0.0]",1,(IF(C6="[0.0, 1.8, 0.0]",2,(IF(C6="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -3246,7 +3554,7 @@
         <v>1590269808</v>
       </c>
       <c r="B7">
-        <f>IF(C7="[-1.8, 0.0, 0.0]",1,(IF(C7="[0.0, 1.8, 0.0]",2,(IF(C7="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C7" t="s">
@@ -3267,7 +3575,7 @@
         <v>1590269808</v>
       </c>
       <c r="B8">
-        <f>IF(C8="[-1.8, 0.0, 0.0]",1,(IF(C8="[0.0, 1.8, 0.0]",2,(IF(C8="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" t="s">
@@ -3288,7 +3596,7 @@
         <v>1590269808</v>
       </c>
       <c r="B9">
-        <f>IF(C9="[-1.8, 0.0, 0.0]",1,(IF(C9="[0.0, 1.8, 0.0]",2,(IF(C9="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" t="s">
@@ -3309,7 +3617,7 @@
         <v>1590269808</v>
       </c>
       <c r="B10">
-        <f>IF(C10="[-1.8, 0.0, 0.0]",1,(IF(C10="[0.0, 1.8, 0.0]",2,(IF(C10="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C10" t="s">
@@ -3330,7 +3638,7 @@
         <v>1590269808</v>
       </c>
       <c r="B11">
-        <f>IF(C11="[-1.8, 0.0, 0.0]",1,(IF(C11="[0.0, 1.8, 0.0]",2,(IF(C11="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C11" t="s">
@@ -3351,7 +3659,7 @@
         <v>1590269808</v>
       </c>
       <c r="B12">
-        <f>IF(C12="[-1.8, 0.0, 0.0]",1,(IF(C12="[0.0, 1.8, 0.0]",2,(IF(C12="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" t="s">
@@ -3372,7 +3680,7 @@
         <v>1590269808</v>
       </c>
       <c r="B13">
-        <f>IF(C13="[-1.8, 0.0, 0.0]",1,(IF(C13="[0.0, 1.8, 0.0]",2,(IF(C13="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C13" t="s">
@@ -3393,7 +3701,7 @@
         <v>1590269808</v>
       </c>
       <c r="B14">
-        <f>IF(C14="[-1.8, 0.0, 0.0]",1,(IF(C14="[0.0, 1.8, 0.0]",2,(IF(C14="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C14" t="s">
@@ -3414,7 +3722,7 @@
         <v>1590269808</v>
       </c>
       <c r="B15">
-        <f>IF(C15="[-1.8, 0.0, 0.0]",1,(IF(C15="[0.0, 1.8, 0.0]",2,(IF(C15="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C15" t="s">
@@ -3435,7 +3743,7 @@
         <v>1590269808</v>
       </c>
       <c r="B16">
-        <f>IF(C16="[-1.8, 0.0, 0.0]",1,(IF(C16="[0.0, 1.8, 0.0]",2,(IF(C16="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -3456,7 +3764,7 @@
         <v>1590269808</v>
       </c>
       <c r="B17">
-        <f>IF(C17="[-1.8, 0.0, 0.0]",1,(IF(C17="[0.0, 1.8, 0.0]",2,(IF(C17="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C17" t="s">
@@ -3477,7 +3785,7 @@
         <v>1590269808</v>
       </c>
       <c r="B18">
-        <f>IF(C18="[-1.8, 0.0, 0.0]",1,(IF(C18="[0.0, 1.8, 0.0]",2,(IF(C18="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C18" t="s">
@@ -3498,7 +3806,7 @@
         <v>1590269808</v>
       </c>
       <c r="B19">
-        <f>IF(C19="[-1.8, 0.0, 0.0]",1,(IF(C19="[0.0, 1.8, 0.0]",2,(IF(C19="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C19" t="s">
@@ -3519,7 +3827,7 @@
         <v>1590269808</v>
       </c>
       <c r="B20">
-        <f>IF(C20="[-1.8, 0.0, 0.0]",1,(IF(C20="[0.0, 1.8, 0.0]",2,(IF(C20="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C20" t="s">
@@ -3540,7 +3848,7 @@
         <v>1590269808</v>
       </c>
       <c r="B21">
-        <f>IF(C21="[-1.8, 0.0, 0.0]",1,(IF(C21="[0.0, 1.8, 0.0]",2,(IF(C21="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C21" t="s">
@@ -3564,7 +3872,7 @@
         <v>1590270259</v>
       </c>
       <c r="B23">
-        <f>IF(C23="[-1.8, 0.0, 0.0]",1,(IF(C23="[0.0, 1.8, 0.0]",2,(IF(C23="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B23:B42" si="1">IF(C23="[-1.8, 0.0, 0.0]",1,(IF(C23="[0.0, 1.8, 0.0]",2,(IF(C23="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -3585,7 +3893,7 @@
         <v>1590270259</v>
       </c>
       <c r="B24">
-        <f>IF(C24="[-1.8, 0.0, 0.0]",1,(IF(C24="[0.0, 1.8, 0.0]",2,(IF(C24="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -3606,7 +3914,7 @@
         <v>1590270259</v>
       </c>
       <c r="B25">
-        <f>IF(C25="[-1.8, 0.0, 0.0]",1,(IF(C25="[0.0, 1.8, 0.0]",2,(IF(C25="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -3627,7 +3935,7 @@
         <v>1590270259</v>
       </c>
       <c r="B26">
-        <f>IF(C26="[-1.8, 0.0, 0.0]",1,(IF(C26="[0.0, 1.8, 0.0]",2,(IF(C26="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -3648,7 +3956,7 @@
         <v>1590270259</v>
       </c>
       <c r="B27">
-        <f>IF(C27="[-1.8, 0.0, 0.0]",1,(IF(C27="[0.0, 1.8, 0.0]",2,(IF(C27="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -3669,7 +3977,7 @@
         <v>1590270259</v>
       </c>
       <c r="B28">
-        <f>IF(C28="[-1.8, 0.0, 0.0]",1,(IF(C28="[0.0, 1.8, 0.0]",2,(IF(C28="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C28" t="s">
@@ -3690,7 +3998,7 @@
         <v>1590270259</v>
       </c>
       <c r="B29">
-        <f>IF(C29="[-1.8, 0.0, 0.0]",1,(IF(C29="[0.0, 1.8, 0.0]",2,(IF(C29="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C29" t="s">
@@ -3711,7 +4019,7 @@
         <v>1590270259</v>
       </c>
       <c r="B30">
-        <f>IF(C30="[-1.8, 0.0, 0.0]",1,(IF(C30="[0.0, 1.8, 0.0]",2,(IF(C30="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C30" t="s">
@@ -3732,7 +4040,7 @@
         <v>1590270259</v>
       </c>
       <c r="B31">
-        <f>IF(C31="[-1.8, 0.0, 0.0]",1,(IF(C31="[0.0, 1.8, 0.0]",2,(IF(C31="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C31" t="s">
@@ -3753,7 +4061,7 @@
         <v>1590270259</v>
       </c>
       <c r="B32">
-        <f>IF(C32="[-1.8, 0.0, 0.0]",1,(IF(C32="[0.0, 1.8, 0.0]",2,(IF(C32="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C32" t="s">
@@ -3774,7 +4082,7 @@
         <v>1590270259</v>
       </c>
       <c r="B33">
-        <f>IF(C33="[-1.8, 0.0, 0.0]",1,(IF(C33="[0.0, 1.8, 0.0]",2,(IF(C33="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C33" t="s">
@@ -3795,7 +4103,7 @@
         <v>1590270259</v>
       </c>
       <c r="B34">
-        <f>IF(C34="[-1.8, 0.0, 0.0]",1,(IF(C34="[0.0, 1.8, 0.0]",2,(IF(C34="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C34" t="s">
@@ -3816,7 +4124,7 @@
         <v>1590270259</v>
       </c>
       <c r="B35">
-        <f>IF(C35="[-1.8, 0.0, 0.0]",1,(IF(C35="[0.0, 1.8, 0.0]",2,(IF(C35="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C35" t="s">
@@ -3837,7 +4145,7 @@
         <v>1590270259</v>
       </c>
       <c r="B36">
-        <f>IF(C36="[-1.8, 0.0, 0.0]",1,(IF(C36="[0.0, 1.8, 0.0]",2,(IF(C36="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C36" t="s">
@@ -3858,7 +4166,7 @@
         <v>1590270259</v>
       </c>
       <c r="B37">
-        <f>IF(C37="[-1.8, 0.0, 0.0]",1,(IF(C37="[0.0, 1.8, 0.0]",2,(IF(C37="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C37" t="s">
@@ -3879,7 +4187,7 @@
         <v>1590270259</v>
       </c>
       <c r="B38">
-        <f>IF(C38="[-1.8, 0.0, 0.0]",1,(IF(C38="[0.0, 1.8, 0.0]",2,(IF(C38="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C38" t="s">
@@ -3900,7 +4208,7 @@
         <v>1590270259</v>
       </c>
       <c r="B39">
-        <f>IF(C39="[-1.8, 0.0, 0.0]",1,(IF(C39="[0.0, 1.8, 0.0]",2,(IF(C39="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C39" t="s">
@@ -3921,7 +4229,7 @@
         <v>1590270259</v>
       </c>
       <c r="B40">
-        <f>IF(C40="[-1.8, 0.0, 0.0]",1,(IF(C40="[0.0, 1.8, 0.0]",2,(IF(C40="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C40" t="s">
@@ -3942,7 +4250,7 @@
         <v>1590270259</v>
       </c>
       <c r="B41">
-        <f>IF(C41="[-1.8, 0.0, 0.0]",1,(IF(C41="[0.0, 1.8, 0.0]",2,(IF(C41="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C41" t="s">
@@ -3963,7 +4271,7 @@
         <v>1590270259</v>
       </c>
       <c r="B42">
-        <f>IF(C42="[-1.8, 0.0, 0.0]",1,(IF(C42="[0.0, 1.8, 0.0]",2,(IF(C42="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C42" t="s">
@@ -3987,7 +4295,7 @@
         <v>1590271053</v>
       </c>
       <c r="B44">
-        <f>IF(C44="[-1.8, 0.0, 0.0]",1,(IF(C44="[0.0, 1.8, 0.0]",2,(IF(C44="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B44:B63" si="2">IF(C44="[-1.8, 0.0, 0.0]",1,(IF(C44="[0.0, 1.8, 0.0]",2,(IF(C44="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C44" t="s">
@@ -4008,7 +4316,7 @@
         <v>1590271053</v>
       </c>
       <c r="B45">
-        <f>IF(C45="[-1.8, 0.0, 0.0]",1,(IF(C45="[0.0, 1.8, 0.0]",2,(IF(C45="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C45" t="s">
@@ -4029,7 +4337,7 @@
         <v>1590271053</v>
       </c>
       <c r="B46">
-        <f>IF(C46="[-1.8, 0.0, 0.0]",1,(IF(C46="[0.0, 1.8, 0.0]",2,(IF(C46="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C46" t="s">
@@ -4050,7 +4358,7 @@
         <v>1590271053</v>
       </c>
       <c r="B47">
-        <f>IF(C47="[-1.8, 0.0, 0.0]",1,(IF(C47="[0.0, 1.8, 0.0]",2,(IF(C47="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C47" t="s">
@@ -4071,7 +4379,7 @@
         <v>1590271053</v>
       </c>
       <c r="B48">
-        <f>IF(C48="[-1.8, 0.0, 0.0]",1,(IF(C48="[0.0, 1.8, 0.0]",2,(IF(C48="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C48" t="s">
@@ -4092,7 +4400,7 @@
         <v>1590271053</v>
       </c>
       <c r="B49">
-        <f>IF(C49="[-1.8, 0.0, 0.0]",1,(IF(C49="[0.0, 1.8, 0.0]",2,(IF(C49="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C49" t="s">
@@ -4113,7 +4421,7 @@
         <v>1590271053</v>
       </c>
       <c r="B50">
-        <f>IF(C50="[-1.8, 0.0, 0.0]",1,(IF(C50="[0.0, 1.8, 0.0]",2,(IF(C50="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C50" t="s">
@@ -4134,7 +4442,7 @@
         <v>1590271053</v>
       </c>
       <c r="B51">
-        <f>IF(C51="[-1.8, 0.0, 0.0]",1,(IF(C51="[0.0, 1.8, 0.0]",2,(IF(C51="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C51" t="s">
@@ -4155,7 +4463,7 @@
         <v>1590271053</v>
       </c>
       <c r="B52">
-        <f>IF(C52="[-1.8, 0.0, 0.0]",1,(IF(C52="[0.0, 1.8, 0.0]",2,(IF(C52="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C52" t="s">
@@ -4176,7 +4484,7 @@
         <v>1590271053</v>
       </c>
       <c r="B53">
-        <f>IF(C53="[-1.8, 0.0, 0.0]",1,(IF(C53="[0.0, 1.8, 0.0]",2,(IF(C53="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C53" t="s">
@@ -4197,7 +4505,7 @@
         <v>1590271053</v>
       </c>
       <c r="B54">
-        <f>IF(C54="[-1.8, 0.0, 0.0]",1,(IF(C54="[0.0, 1.8, 0.0]",2,(IF(C54="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C54" t="s">
@@ -4218,7 +4526,7 @@
         <v>1590271053</v>
       </c>
       <c r="B55">
-        <f>IF(C55="[-1.8, 0.0, 0.0]",1,(IF(C55="[0.0, 1.8, 0.0]",2,(IF(C55="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C55" t="s">
@@ -4239,7 +4547,7 @@
         <v>1590271053</v>
       </c>
       <c r="B56">
-        <f>IF(C56="[-1.8, 0.0, 0.0]",1,(IF(C56="[0.0, 1.8, 0.0]",2,(IF(C56="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C56" t="s">
@@ -4260,7 +4568,7 @@
         <v>1590271053</v>
       </c>
       <c r="B57">
-        <f>IF(C57="[-1.8, 0.0, 0.0]",1,(IF(C57="[0.0, 1.8, 0.0]",2,(IF(C57="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C57" t="s">
@@ -4281,7 +4589,7 @@
         <v>1590271053</v>
       </c>
       <c r="B58">
-        <f>IF(C58="[-1.8, 0.0, 0.0]",1,(IF(C58="[0.0, 1.8, 0.0]",2,(IF(C58="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C58" t="s">
@@ -4302,7 +4610,7 @@
         <v>1590271053</v>
       </c>
       <c r="B59">
-        <f>IF(C59="[-1.8, 0.0, 0.0]",1,(IF(C59="[0.0, 1.8, 0.0]",2,(IF(C59="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C59" t="s">
@@ -4323,7 +4631,7 @@
         <v>1590271053</v>
       </c>
       <c r="B60">
-        <f>IF(C60="[-1.8, 0.0, 0.0]",1,(IF(C60="[0.0, 1.8, 0.0]",2,(IF(C60="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C60" t="s">
@@ -4344,7 +4652,7 @@
         <v>1590271053</v>
       </c>
       <c r="B61">
-        <f>IF(C61="[-1.8, 0.0, 0.0]",1,(IF(C61="[0.0, 1.8, 0.0]",2,(IF(C61="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C61" t="s">
@@ -4365,7 +4673,7 @@
         <v>1590271053</v>
       </c>
       <c r="B62">
-        <f>IF(C62="[-1.8, 0.0, 0.0]",1,(IF(C62="[0.0, 1.8, 0.0]",2,(IF(C62="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C62" t="s">
@@ -4386,7 +4694,7 @@
         <v>1590271053</v>
       </c>
       <c r="B63">
-        <f>IF(C63="[-1.8, 0.0, 0.0]",1,(IF(C63="[0.0, 1.8, 0.0]",2,(IF(C63="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C63" t="s">
@@ -4410,7 +4718,7 @@
         <v>1590271725</v>
       </c>
       <c r="B65">
-        <f>IF(C65="[-1.8, 0.0, 0.0]",1,(IF(C65="[0.0, 1.8, 0.0]",2,(IF(C65="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B65:B84" si="3">IF(C65="[-1.8, 0.0, 0.0]",1,(IF(C65="[0.0, 1.8, 0.0]",2,(IF(C65="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
@@ -4431,7 +4739,7 @@
         <v>1590271725</v>
       </c>
       <c r="B66">
-        <f>IF(C66="[-1.8, 0.0, 0.0]",1,(IF(C66="[0.0, 1.8, 0.0]",2,(IF(C66="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C66" t="s">
@@ -4452,7 +4760,7 @@
         <v>1590271725</v>
       </c>
       <c r="B67">
-        <f>IF(C67="[-1.8, 0.0, 0.0]",1,(IF(C67="[0.0, 1.8, 0.0]",2,(IF(C67="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C67" t="s">
@@ -4473,7 +4781,7 @@
         <v>1590271725</v>
       </c>
       <c r="B68">
-        <f>IF(C68="[-1.8, 0.0, 0.0]",1,(IF(C68="[0.0, 1.8, 0.0]",2,(IF(C68="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C68" t="s">
@@ -4494,7 +4802,7 @@
         <v>1590271725</v>
       </c>
       <c r="B69">
-        <f>IF(C69="[-1.8, 0.0, 0.0]",1,(IF(C69="[0.0, 1.8, 0.0]",2,(IF(C69="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C69" t="s">
@@ -4515,7 +4823,7 @@
         <v>1590271725</v>
       </c>
       <c r="B70">
-        <f>IF(C70="[-1.8, 0.0, 0.0]",1,(IF(C70="[0.0, 1.8, 0.0]",2,(IF(C70="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C70" t="s">
@@ -4536,7 +4844,7 @@
         <v>1590271725</v>
       </c>
       <c r="B71">
-        <f>IF(C71="[-1.8, 0.0, 0.0]",1,(IF(C71="[0.0, 1.8, 0.0]",2,(IF(C71="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C71" t="s">
@@ -4557,7 +4865,7 @@
         <v>1590271725</v>
       </c>
       <c r="B72">
-        <f>IF(C72="[-1.8, 0.0, 0.0]",1,(IF(C72="[0.0, 1.8, 0.0]",2,(IF(C72="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C72" t="s">
@@ -4578,7 +4886,7 @@
         <v>1590271725</v>
       </c>
       <c r="B73">
-        <f>IF(C73="[-1.8, 0.0, 0.0]",1,(IF(C73="[0.0, 1.8, 0.0]",2,(IF(C73="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C73" t="s">
@@ -4599,7 +4907,7 @@
         <v>1590271725</v>
       </c>
       <c r="B74">
-        <f>IF(C74="[-1.8, 0.0, 0.0]",1,(IF(C74="[0.0, 1.8, 0.0]",2,(IF(C74="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C74" t="s">
@@ -4620,7 +4928,7 @@
         <v>1590271725</v>
       </c>
       <c r="B75">
-        <f>IF(C75="[-1.8, 0.0, 0.0]",1,(IF(C75="[0.0, 1.8, 0.0]",2,(IF(C75="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C75" t="s">
@@ -4641,7 +4949,7 @@
         <v>1590271725</v>
       </c>
       <c r="B76">
-        <f>IF(C76="[-1.8, 0.0, 0.0]",1,(IF(C76="[0.0, 1.8, 0.0]",2,(IF(C76="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C76" t="s">
@@ -4662,7 +4970,7 @@
         <v>1590271725</v>
       </c>
       <c r="B77">
-        <f>IF(C77="[-1.8, 0.0, 0.0]",1,(IF(C77="[0.0, 1.8, 0.0]",2,(IF(C77="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C77" t="s">
@@ -4683,7 +4991,7 @@
         <v>1590271725</v>
       </c>
       <c r="B78">
-        <f>IF(C78="[-1.8, 0.0, 0.0]",1,(IF(C78="[0.0, 1.8, 0.0]",2,(IF(C78="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C78" t="s">
@@ -4704,7 +5012,7 @@
         <v>1590271725</v>
       </c>
       <c r="B79">
-        <f>IF(C79="[-1.8, 0.0, 0.0]",1,(IF(C79="[0.0, 1.8, 0.0]",2,(IF(C79="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C79" t="s">
@@ -4725,7 +5033,7 @@
         <v>1590271725</v>
       </c>
       <c r="B80">
-        <f>IF(C80="[-1.8, 0.0, 0.0]",1,(IF(C80="[0.0, 1.8, 0.0]",2,(IF(C80="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C80" t="s">
@@ -4746,7 +5054,7 @@
         <v>1590271725</v>
       </c>
       <c r="B81">
-        <f>IF(C81="[-1.8, 0.0, 0.0]",1,(IF(C81="[0.0, 1.8, 0.0]",2,(IF(C81="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C81" t="s">
@@ -4767,7 +5075,7 @@
         <v>1590271725</v>
       </c>
       <c r="B82">
-        <f>IF(C82="[-1.8, 0.0, 0.0]",1,(IF(C82="[0.0, 1.8, 0.0]",2,(IF(C82="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C82" t="s">
@@ -4788,7 +5096,7 @@
         <v>1590271725</v>
       </c>
       <c r="B83">
-        <f>IF(C83="[-1.8, 0.0, 0.0]",1,(IF(C83="[0.0, 1.8, 0.0]",2,(IF(C83="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C83" t="s">
@@ -4809,7 +5117,7 @@
         <v>1590271725</v>
       </c>
       <c r="B84">
-        <f>IF(C84="[-1.8, 0.0, 0.0]",1,(IF(C84="[0.0, 1.8, 0.0]",2,(IF(C84="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C84" t="s">
@@ -4833,7 +5141,7 @@
         <v>1590272646</v>
       </c>
       <c r="B86">
-        <f>IF(C86="[-1.8, 0.0, 0.0]",1,(IF(C86="[0.0, 1.8, 0.0]",2,(IF(C86="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B86:B105" si="4">IF(C86="[-1.8, 0.0, 0.0]",1,(IF(C86="[0.0, 1.8, 0.0]",2,(IF(C86="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C86" t="s">
@@ -4854,7 +5162,7 @@
         <v>1590272646</v>
       </c>
       <c r="B87">
-        <f>IF(C87="[-1.8, 0.0, 0.0]",1,(IF(C87="[0.0, 1.8, 0.0]",2,(IF(C87="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C87" t="s">
@@ -4875,7 +5183,7 @@
         <v>1590272646</v>
       </c>
       <c r="B88">
-        <f>IF(C88="[-1.8, 0.0, 0.0]",1,(IF(C88="[0.0, 1.8, 0.0]",2,(IF(C88="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C88" t="s">
@@ -4896,7 +5204,7 @@
         <v>1590272646</v>
       </c>
       <c r="B89">
-        <f>IF(C89="[-1.8, 0.0, 0.0]",1,(IF(C89="[0.0, 1.8, 0.0]",2,(IF(C89="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C89" t="s">
@@ -4917,7 +5225,7 @@
         <v>1590272646</v>
       </c>
       <c r="B90">
-        <f>IF(C90="[-1.8, 0.0, 0.0]",1,(IF(C90="[0.0, 1.8, 0.0]",2,(IF(C90="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C90" t="s">
@@ -4938,7 +5246,7 @@
         <v>1590272646</v>
       </c>
       <c r="B91">
-        <f>IF(C91="[-1.8, 0.0, 0.0]",1,(IF(C91="[0.0, 1.8, 0.0]",2,(IF(C91="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C91" t="s">
@@ -4959,7 +5267,7 @@
         <v>1590272646</v>
       </c>
       <c r="B92">
-        <f>IF(C92="[-1.8, 0.0, 0.0]",1,(IF(C92="[0.0, 1.8, 0.0]",2,(IF(C92="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C92" t="s">
@@ -4980,7 +5288,7 @@
         <v>1590272646</v>
       </c>
       <c r="B93">
-        <f>IF(C93="[-1.8, 0.0, 0.0]",1,(IF(C93="[0.0, 1.8, 0.0]",2,(IF(C93="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C93" t="s">
@@ -5001,7 +5309,7 @@
         <v>1590272646</v>
       </c>
       <c r="B94">
-        <f>IF(C94="[-1.8, 0.0, 0.0]",1,(IF(C94="[0.0, 1.8, 0.0]",2,(IF(C94="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C94" t="s">
@@ -5022,7 +5330,7 @@
         <v>1590272646</v>
       </c>
       <c r="B95">
-        <f>IF(C95="[-1.8, 0.0, 0.0]",1,(IF(C95="[0.0, 1.8, 0.0]",2,(IF(C95="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C95" t="s">
@@ -5043,7 +5351,7 @@
         <v>1590272646</v>
       </c>
       <c r="B96">
-        <f>IF(C96="[-1.8, 0.0, 0.0]",1,(IF(C96="[0.0, 1.8, 0.0]",2,(IF(C96="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C96" t="s">
@@ -5064,7 +5372,7 @@
         <v>1590272646</v>
       </c>
       <c r="B97">
-        <f>IF(C97="[-1.8, 0.0, 0.0]",1,(IF(C97="[0.0, 1.8, 0.0]",2,(IF(C97="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C97" t="s">
@@ -5085,7 +5393,7 @@
         <v>1590272646</v>
       </c>
       <c r="B98">
-        <f>IF(C98="[-1.8, 0.0, 0.0]",1,(IF(C98="[0.0, 1.8, 0.0]",2,(IF(C98="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C98" t="s">
@@ -5106,7 +5414,7 @@
         <v>1590272646</v>
       </c>
       <c r="B99">
-        <f>IF(C99="[-1.8, 0.0, 0.0]",1,(IF(C99="[0.0, 1.8, 0.0]",2,(IF(C99="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C99" t="s">
@@ -5127,7 +5435,7 @@
         <v>1590272646</v>
       </c>
       <c r="B100">
-        <f>IF(C100="[-1.8, 0.0, 0.0]",1,(IF(C100="[0.0, 1.8, 0.0]",2,(IF(C100="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C100" t="s">
@@ -5148,7 +5456,7 @@
         <v>1590272646</v>
       </c>
       <c r="B101">
-        <f>IF(C101="[-1.8, 0.0, 0.0]",1,(IF(C101="[0.0, 1.8, 0.0]",2,(IF(C101="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C101" t="s">
@@ -5169,7 +5477,7 @@
         <v>1590272646</v>
       </c>
       <c r="B102">
-        <f>IF(C102="[-1.8, 0.0, 0.0]",1,(IF(C102="[0.0, 1.8, 0.0]",2,(IF(C102="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C102" t="s">
@@ -5190,7 +5498,7 @@
         <v>1590272646</v>
       </c>
       <c r="B103">
-        <f>IF(C103="[-1.8, 0.0, 0.0]",1,(IF(C103="[0.0, 1.8, 0.0]",2,(IF(C103="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C103" t="s">
@@ -5211,7 +5519,7 @@
         <v>1590272646</v>
       </c>
       <c r="B104">
-        <f>IF(C104="[-1.8, 0.0, 0.0]",1,(IF(C104="[0.0, 1.8, 0.0]",2,(IF(C104="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C104" t="s">
@@ -5232,7 +5540,7 @@
         <v>1590272646</v>
       </c>
       <c r="B105">
-        <f>IF(C105="[-1.8, 0.0, 0.0]",1,(IF(C105="[0.0, 1.8, 0.0]",2,(IF(C105="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C105" t="s">
@@ -5256,7 +5564,7 @@
         <v>1590273485</v>
       </c>
       <c r="B107">
-        <f>IF(C107="[-1.8, 0.0, 0.0]",1,(IF(C107="[0.0, 1.8, 0.0]",2,(IF(C107="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B107:B126" si="5">IF(C107="[-1.8, 0.0, 0.0]",1,(IF(C107="[0.0, 1.8, 0.0]",2,(IF(C107="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
@@ -5277,7 +5585,7 @@
         <v>1590273485</v>
       </c>
       <c r="B108">
-        <f>IF(C108="[-1.8, 0.0, 0.0]",1,(IF(C108="[0.0, 1.8, 0.0]",2,(IF(C108="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C108" t="s">
@@ -5298,7 +5606,7 @@
         <v>1590273485</v>
       </c>
       <c r="B109">
-        <f>IF(C109="[-1.8, 0.0, 0.0]",1,(IF(C109="[0.0, 1.8, 0.0]",2,(IF(C109="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C109" t="s">
@@ -5319,7 +5627,7 @@
         <v>1590273485</v>
       </c>
       <c r="B110">
-        <f>IF(C110="[-1.8, 0.0, 0.0]",1,(IF(C110="[0.0, 1.8, 0.0]",2,(IF(C110="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C110" t="s">
@@ -5340,7 +5648,7 @@
         <v>1590273485</v>
       </c>
       <c r="B111">
-        <f>IF(C111="[-1.8, 0.0, 0.0]",1,(IF(C111="[0.0, 1.8, 0.0]",2,(IF(C111="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C111" t="s">
@@ -5361,7 +5669,7 @@
         <v>1590273485</v>
       </c>
       <c r="B112">
-        <f>IF(C112="[-1.8, 0.0, 0.0]",1,(IF(C112="[0.0, 1.8, 0.0]",2,(IF(C112="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C112" t="s">
@@ -5382,7 +5690,7 @@
         <v>1590273485</v>
       </c>
       <c r="B113">
-        <f>IF(C113="[-1.8, 0.0, 0.0]",1,(IF(C113="[0.0, 1.8, 0.0]",2,(IF(C113="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C113" t="s">
@@ -5403,7 +5711,7 @@
         <v>1590273485</v>
       </c>
       <c r="B114">
-        <f>IF(C114="[-1.8, 0.0, 0.0]",1,(IF(C114="[0.0, 1.8, 0.0]",2,(IF(C114="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C114" t="s">
@@ -5424,7 +5732,7 @@
         <v>1590273485</v>
       </c>
       <c r="B115">
-        <f>IF(C115="[-1.8, 0.0, 0.0]",1,(IF(C115="[0.0, 1.8, 0.0]",2,(IF(C115="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C115" t="s">
@@ -5445,7 +5753,7 @@
         <v>1590273485</v>
       </c>
       <c r="B116">
-        <f>IF(C116="[-1.8, 0.0, 0.0]",1,(IF(C116="[0.0, 1.8, 0.0]",2,(IF(C116="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C116" t="s">
@@ -5466,7 +5774,7 @@
         <v>1590273485</v>
       </c>
       <c r="B117">
-        <f>IF(C117="[-1.8, 0.0, 0.0]",1,(IF(C117="[0.0, 1.8, 0.0]",2,(IF(C117="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C117" t="s">
@@ -5487,7 +5795,7 @@
         <v>1590273485</v>
       </c>
       <c r="B118">
-        <f>IF(C118="[-1.8, 0.0, 0.0]",1,(IF(C118="[0.0, 1.8, 0.0]",2,(IF(C118="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C118" t="s">
@@ -5508,7 +5816,7 @@
         <v>1590273485</v>
       </c>
       <c r="B119">
-        <f>IF(C119="[-1.8, 0.0, 0.0]",1,(IF(C119="[0.0, 1.8, 0.0]",2,(IF(C119="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C119" t="s">
@@ -5529,7 +5837,7 @@
         <v>1590273485</v>
       </c>
       <c r="B120">
-        <f>IF(C120="[-1.8, 0.0, 0.0]",1,(IF(C120="[0.0, 1.8, 0.0]",2,(IF(C120="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C120" t="s">
@@ -5550,7 +5858,7 @@
         <v>1590273485</v>
       </c>
       <c r="B121">
-        <f>IF(C121="[-1.8, 0.0, 0.0]",1,(IF(C121="[0.0, 1.8, 0.0]",2,(IF(C121="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C121" t="s">
@@ -5571,7 +5879,7 @@
         <v>1590273485</v>
       </c>
       <c r="B122">
-        <f>IF(C122="[-1.8, 0.0, 0.0]",1,(IF(C122="[0.0, 1.8, 0.0]",2,(IF(C122="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C122" t="s">
@@ -5592,7 +5900,7 @@
         <v>1590273485</v>
       </c>
       <c r="B123">
-        <f>IF(C123="[-1.8, 0.0, 0.0]",1,(IF(C123="[0.0, 1.8, 0.0]",2,(IF(C123="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C123" t="s">
@@ -5613,7 +5921,7 @@
         <v>1590273485</v>
       </c>
       <c r="B124">
-        <f>IF(C124="[-1.8, 0.0, 0.0]",1,(IF(C124="[0.0, 1.8, 0.0]",2,(IF(C124="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C124" t="s">
@@ -5634,7 +5942,7 @@
         <v>1590273485</v>
       </c>
       <c r="B125">
-        <f>IF(C125="[-1.8, 0.0, 0.0]",1,(IF(C125="[0.0, 1.8, 0.0]",2,(IF(C125="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C125" t="s">
@@ -5655,7 +5963,7 @@
         <v>1590273485</v>
       </c>
       <c r="B126">
-        <f>IF(C126="[-1.8, 0.0, 0.0]",1,(IF(C126="[0.0, 1.8, 0.0]",2,(IF(C126="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C126" t="s">
@@ -5679,7 +5987,7 @@
         <v>1590274217</v>
       </c>
       <c r="B128">
-        <f>IF(C128="[-1.8, 0.0, 0.0]",1,(IF(C128="[0.0, 1.8, 0.0]",2,(IF(C128="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B128:B147" si="6">IF(C128="[-1.8, 0.0, 0.0]",1,(IF(C128="[0.0, 1.8, 0.0]",2,(IF(C128="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C128" t="s">
@@ -5700,7 +6008,7 @@
         <v>1590274217</v>
       </c>
       <c r="B129">
-        <f>IF(C129="[-1.8, 0.0, 0.0]",1,(IF(C129="[0.0, 1.8, 0.0]",2,(IF(C129="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C129" t="s">
@@ -5721,7 +6029,7 @@
         <v>1590274217</v>
       </c>
       <c r="B130">
-        <f>IF(C130="[-1.8, 0.0, 0.0]",1,(IF(C130="[0.0, 1.8, 0.0]",2,(IF(C130="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C130" t="s">
@@ -5742,7 +6050,7 @@
         <v>1590274217</v>
       </c>
       <c r="B131">
-        <f>IF(C131="[-1.8, 0.0, 0.0]",1,(IF(C131="[0.0, 1.8, 0.0]",2,(IF(C131="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C131" t="s">
@@ -5763,7 +6071,7 @@
         <v>1590274217</v>
       </c>
       <c r="B132">
-        <f>IF(C132="[-1.8, 0.0, 0.0]",1,(IF(C132="[0.0, 1.8, 0.0]",2,(IF(C132="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C132" t="s">
@@ -5784,7 +6092,7 @@
         <v>1590274217</v>
       </c>
       <c r="B133">
-        <f>IF(C133="[-1.8, 0.0, 0.0]",1,(IF(C133="[0.0, 1.8, 0.0]",2,(IF(C133="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C133" t="s">
@@ -5805,7 +6113,7 @@
         <v>1590274217</v>
       </c>
       <c r="B134">
-        <f>IF(C134="[-1.8, 0.0, 0.0]",1,(IF(C134="[0.0, 1.8, 0.0]",2,(IF(C134="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C134" t="s">
@@ -5826,7 +6134,7 @@
         <v>1590274217</v>
       </c>
       <c r="B135">
-        <f>IF(C135="[-1.8, 0.0, 0.0]",1,(IF(C135="[0.0, 1.8, 0.0]",2,(IF(C135="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C135" t="s">
@@ -5847,7 +6155,7 @@
         <v>1590274217</v>
       </c>
       <c r="B136">
-        <f>IF(C136="[-1.8, 0.0, 0.0]",1,(IF(C136="[0.0, 1.8, 0.0]",2,(IF(C136="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C136" t="s">
@@ -5868,7 +6176,7 @@
         <v>1590274217</v>
       </c>
       <c r="B137">
-        <f>IF(C137="[-1.8, 0.0, 0.0]",1,(IF(C137="[0.0, 1.8, 0.0]",2,(IF(C137="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C137" t="s">
@@ -5889,7 +6197,7 @@
         <v>1590274217</v>
       </c>
       <c r="B138">
-        <f>IF(C138="[-1.8, 0.0, 0.0]",1,(IF(C138="[0.0, 1.8, 0.0]",2,(IF(C138="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C138" t="s">
@@ -5910,7 +6218,7 @@
         <v>1590274217</v>
       </c>
       <c r="B139">
-        <f>IF(C139="[-1.8, 0.0, 0.0]",1,(IF(C139="[0.0, 1.8, 0.0]",2,(IF(C139="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C139" t="s">
@@ -5931,7 +6239,7 @@
         <v>1590274217</v>
       </c>
       <c r="B140">
-        <f>IF(C140="[-1.8, 0.0, 0.0]",1,(IF(C140="[0.0, 1.8, 0.0]",2,(IF(C140="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C140" t="s">
@@ -5952,7 +6260,7 @@
         <v>1590274217</v>
       </c>
       <c r="B141">
-        <f>IF(C141="[-1.8, 0.0, 0.0]",1,(IF(C141="[0.0, 1.8, 0.0]",2,(IF(C141="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C141" t="s">
@@ -5973,7 +6281,7 @@
         <v>1590274217</v>
       </c>
       <c r="B142">
-        <f>IF(C142="[-1.8, 0.0, 0.0]",1,(IF(C142="[0.0, 1.8, 0.0]",2,(IF(C142="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C142" t="s">
@@ -5994,7 +6302,7 @@
         <v>1590274217</v>
       </c>
       <c r="B143">
-        <f>IF(C143="[-1.8, 0.0, 0.0]",1,(IF(C143="[0.0, 1.8, 0.0]",2,(IF(C143="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C143" t="s">
@@ -6015,7 +6323,7 @@
         <v>1590274217</v>
       </c>
       <c r="B144">
-        <f>IF(C144="[-1.8, 0.0, 0.0]",1,(IF(C144="[0.0, 1.8, 0.0]",2,(IF(C144="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C144" t="s">
@@ -6036,7 +6344,7 @@
         <v>1590274217</v>
       </c>
       <c r="B145">
-        <f>IF(C145="[-1.8, 0.0, 0.0]",1,(IF(C145="[0.0, 1.8, 0.0]",2,(IF(C145="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C145" t="s">
@@ -6057,7 +6365,7 @@
         <v>1590274217</v>
       </c>
       <c r="B146">
-        <f>IF(C146="[-1.8, 0.0, 0.0]",1,(IF(C146="[0.0, 1.8, 0.0]",2,(IF(C146="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C146" t="s">
@@ -6078,7 +6386,7 @@
         <v>1590274217</v>
       </c>
       <c r="B147">
-        <f>IF(C147="[-1.8, 0.0, 0.0]",1,(IF(C147="[0.0, 1.8, 0.0]",2,(IF(C147="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C147" t="s">
@@ -6102,7 +6410,7 @@
         <v>1590274842</v>
       </c>
       <c r="B149">
-        <f>IF(C149="[-1.8, 0.0, 0.0]",1,(IF(C149="[0.0, 1.8, 0.0]",2,(IF(C149="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B149:B168" si="7">IF(C149="[-1.8, 0.0, 0.0]",1,(IF(C149="[0.0, 1.8, 0.0]",2,(IF(C149="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C149" t="s">
@@ -6123,7 +6431,7 @@
         <v>1590274842</v>
       </c>
       <c r="B150">
-        <f>IF(C150="[-1.8, 0.0, 0.0]",1,(IF(C150="[0.0, 1.8, 0.0]",2,(IF(C150="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C150" t="s">
@@ -6144,7 +6452,7 @@
         <v>1590274842</v>
       </c>
       <c r="B151">
-        <f>IF(C151="[-1.8, 0.0, 0.0]",1,(IF(C151="[0.0, 1.8, 0.0]",2,(IF(C151="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C151" t="s">
@@ -6165,7 +6473,7 @@
         <v>1590274842</v>
       </c>
       <c r="B152">
-        <f>IF(C152="[-1.8, 0.0, 0.0]",1,(IF(C152="[0.0, 1.8, 0.0]",2,(IF(C152="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C152" t="s">
@@ -6186,7 +6494,7 @@
         <v>1590274842</v>
       </c>
       <c r="B153">
-        <f>IF(C153="[-1.8, 0.0, 0.0]",1,(IF(C153="[0.0, 1.8, 0.0]",2,(IF(C153="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C153" t="s">
@@ -6207,7 +6515,7 @@
         <v>1590274842</v>
       </c>
       <c r="B154">
-        <f>IF(C154="[-1.8, 0.0, 0.0]",1,(IF(C154="[0.0, 1.8, 0.0]",2,(IF(C154="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C154" t="s">
@@ -6228,7 +6536,7 @@
         <v>1590274842</v>
       </c>
       <c r="B155">
-        <f>IF(C155="[-1.8, 0.0, 0.0]",1,(IF(C155="[0.0, 1.8, 0.0]",2,(IF(C155="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C155" t="s">
@@ -6249,7 +6557,7 @@
         <v>1590274842</v>
       </c>
       <c r="B156">
-        <f>IF(C156="[-1.8, 0.0, 0.0]",1,(IF(C156="[0.0, 1.8, 0.0]",2,(IF(C156="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C156" t="s">
@@ -6270,7 +6578,7 @@
         <v>1590274842</v>
       </c>
       <c r="B157">
-        <f>IF(C157="[-1.8, 0.0, 0.0]",1,(IF(C157="[0.0, 1.8, 0.0]",2,(IF(C157="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C157" t="s">
@@ -6291,7 +6599,7 @@
         <v>1590274842</v>
       </c>
       <c r="B158">
-        <f>IF(C158="[-1.8, 0.0, 0.0]",1,(IF(C158="[0.0, 1.8, 0.0]",2,(IF(C158="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C158" t="s">
@@ -6312,7 +6620,7 @@
         <v>1590274842</v>
       </c>
       <c r="B159">
-        <f>IF(C159="[-1.8, 0.0, 0.0]",1,(IF(C159="[0.0, 1.8, 0.0]",2,(IF(C159="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C159" t="s">
@@ -6333,7 +6641,7 @@
         <v>1590274842</v>
       </c>
       <c r="B160">
-        <f>IF(C160="[-1.8, 0.0, 0.0]",1,(IF(C160="[0.0, 1.8, 0.0]",2,(IF(C160="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C160" t="s">
@@ -6354,7 +6662,7 @@
         <v>1590274842</v>
       </c>
       <c r="B161">
-        <f>IF(C161="[-1.8, 0.0, 0.0]",1,(IF(C161="[0.0, 1.8, 0.0]",2,(IF(C161="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C161" t="s">
@@ -6375,7 +6683,7 @@
         <v>1590274842</v>
       </c>
       <c r="B162">
-        <f>IF(C162="[-1.8, 0.0, 0.0]",1,(IF(C162="[0.0, 1.8, 0.0]",2,(IF(C162="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C162" t="s">
@@ -6396,7 +6704,7 @@
         <v>1590274842</v>
       </c>
       <c r="B163">
-        <f>IF(C163="[-1.8, 0.0, 0.0]",1,(IF(C163="[0.0, 1.8, 0.0]",2,(IF(C163="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C163" t="s">
@@ -6417,7 +6725,7 @@
         <v>1590274842</v>
       </c>
       <c r="B164">
-        <f>IF(C164="[-1.8, 0.0, 0.0]",1,(IF(C164="[0.0, 1.8, 0.0]",2,(IF(C164="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C164" t="s">
@@ -6438,7 +6746,7 @@
         <v>1590274842</v>
       </c>
       <c r="B165">
-        <f>IF(C165="[-1.8, 0.0, 0.0]",1,(IF(C165="[0.0, 1.8, 0.0]",2,(IF(C165="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C165" t="s">
@@ -6459,7 +6767,7 @@
         <v>1590274842</v>
       </c>
       <c r="B166">
-        <f>IF(C166="[-1.8, 0.0, 0.0]",1,(IF(C166="[0.0, 1.8, 0.0]",2,(IF(C166="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C166" t="s">
@@ -6480,7 +6788,7 @@
         <v>1590274842</v>
       </c>
       <c r="B167">
-        <f>IF(C167="[-1.8, 0.0, 0.0]",1,(IF(C167="[0.0, 1.8, 0.0]",2,(IF(C167="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C167" t="s">
@@ -6501,7 +6809,7 @@
         <v>1590274842</v>
       </c>
       <c r="B168">
-        <f>IF(C168="[-1.8, 0.0, 0.0]",1,(IF(C168="[0.0, 1.8, 0.0]",2,(IF(C168="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C168" t="s">
@@ -6525,7 +6833,7 @@
         <v>1590275391</v>
       </c>
       <c r="B170">
-        <f>IF(C170="[-1.8, 0.0, 0.0]",1,(IF(C170="[0.0, 1.8, 0.0]",2,(IF(C170="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B170:B189" si="8">IF(C170="[-1.8, 0.0, 0.0]",1,(IF(C170="[0.0, 1.8, 0.0]",2,(IF(C170="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C170" t="s">
@@ -6546,7 +6854,7 @@
         <v>1590275391</v>
       </c>
       <c r="B171">
-        <f>IF(C171="[-1.8, 0.0, 0.0]",1,(IF(C171="[0.0, 1.8, 0.0]",2,(IF(C171="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C171" t="s">
@@ -6567,7 +6875,7 @@
         <v>1590275391</v>
       </c>
       <c r="B172">
-        <f>IF(C172="[-1.8, 0.0, 0.0]",1,(IF(C172="[0.0, 1.8, 0.0]",2,(IF(C172="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C172" t="s">
@@ -6588,7 +6896,7 @@
         <v>1590275391</v>
       </c>
       <c r="B173">
-        <f>IF(C173="[-1.8, 0.0, 0.0]",1,(IF(C173="[0.0, 1.8, 0.0]",2,(IF(C173="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C173" t="s">
@@ -6609,7 +6917,7 @@
         <v>1590275391</v>
       </c>
       <c r="B174">
-        <f>IF(C174="[-1.8, 0.0, 0.0]",1,(IF(C174="[0.0, 1.8, 0.0]",2,(IF(C174="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C174" t="s">
@@ -6630,7 +6938,7 @@
         <v>1590275391</v>
       </c>
       <c r="B175">
-        <f>IF(C175="[-1.8, 0.0, 0.0]",1,(IF(C175="[0.0, 1.8, 0.0]",2,(IF(C175="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C175" t="s">
@@ -6651,7 +6959,7 @@
         <v>1590275391</v>
       </c>
       <c r="B176">
-        <f>IF(C176="[-1.8, 0.0, 0.0]",1,(IF(C176="[0.0, 1.8, 0.0]",2,(IF(C176="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C176" t="s">
@@ -6672,7 +6980,7 @@
         <v>1590275391</v>
       </c>
       <c r="B177">
-        <f>IF(C177="[-1.8, 0.0, 0.0]",1,(IF(C177="[0.0, 1.8, 0.0]",2,(IF(C177="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C177" t="s">
@@ -6693,7 +7001,7 @@
         <v>1590275391</v>
       </c>
       <c r="B178">
-        <f>IF(C178="[-1.8, 0.0, 0.0]",1,(IF(C178="[0.0, 1.8, 0.0]",2,(IF(C178="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C178" t="s">
@@ -6714,7 +7022,7 @@
         <v>1590275391</v>
       </c>
       <c r="B179">
-        <f>IF(C179="[-1.8, 0.0, 0.0]",1,(IF(C179="[0.0, 1.8, 0.0]",2,(IF(C179="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C179" t="s">
@@ -6735,7 +7043,7 @@
         <v>1590275391</v>
       </c>
       <c r="B180">
-        <f>IF(C180="[-1.8, 0.0, 0.0]",1,(IF(C180="[0.0, 1.8, 0.0]",2,(IF(C180="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C180" t="s">
@@ -6756,7 +7064,7 @@
         <v>1590275391</v>
       </c>
       <c r="B181">
-        <f>IF(C181="[-1.8, 0.0, 0.0]",1,(IF(C181="[0.0, 1.8, 0.0]",2,(IF(C181="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C181" t="s">
@@ -6777,7 +7085,7 @@
         <v>1590275391</v>
       </c>
       <c r="B182">
-        <f>IF(C182="[-1.8, 0.0, 0.0]",1,(IF(C182="[0.0, 1.8, 0.0]",2,(IF(C182="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C182" t="s">
@@ -6798,7 +7106,7 @@
         <v>1590275391</v>
       </c>
       <c r="B183">
-        <f>IF(C183="[-1.8, 0.0, 0.0]",1,(IF(C183="[0.0, 1.8, 0.0]",2,(IF(C183="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C183" t="s">
@@ -6819,7 +7127,7 @@
         <v>1590275391</v>
       </c>
       <c r="B184">
-        <f>IF(C184="[-1.8, 0.0, 0.0]",1,(IF(C184="[0.0, 1.8, 0.0]",2,(IF(C184="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C184" t="s">
@@ -6840,7 +7148,7 @@
         <v>1590275391</v>
       </c>
       <c r="B185">
-        <f>IF(C185="[-1.8, 0.0, 0.0]",1,(IF(C185="[0.0, 1.8, 0.0]",2,(IF(C185="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C185" t="s">
@@ -6861,7 +7169,7 @@
         <v>1590275391</v>
       </c>
       <c r="B186">
-        <f>IF(C186="[-1.8, 0.0, 0.0]",1,(IF(C186="[0.0, 1.8, 0.0]",2,(IF(C186="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C186" t="s">
@@ -6882,7 +7190,7 @@
         <v>1590275391</v>
       </c>
       <c r="B187">
-        <f>IF(C187="[-1.8, 0.0, 0.0]",1,(IF(C187="[0.0, 1.8, 0.0]",2,(IF(C187="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C187" t="s">
@@ -6903,7 +7211,7 @@
         <v>1590275391</v>
       </c>
       <c r="B188">
-        <f>IF(C188="[-1.8, 0.0, 0.0]",1,(IF(C188="[0.0, 1.8, 0.0]",2,(IF(C188="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C188" t="s">
@@ -6924,7 +7232,7 @@
         <v>1590275391</v>
       </c>
       <c r="B189">
-        <f>IF(C189="[-1.8, 0.0, 0.0]",1,(IF(C189="[0.0, 1.8, 0.0]",2,(IF(C189="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C189" t="s">
@@ -6948,7 +7256,7 @@
         <v>1590275931</v>
       </c>
       <c r="B191">
-        <f>IF(C191="[-1.8, 0.0, 0.0]",1,(IF(C191="[0.0, 1.8, 0.0]",2,(IF(C191="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B191:B210" si="9">IF(C191="[-1.8, 0.0, 0.0]",1,(IF(C191="[0.0, 1.8, 0.0]",2,(IF(C191="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
@@ -6969,7 +7277,7 @@
         <v>1590275931</v>
       </c>
       <c r="B192">
-        <f>IF(C192="[-1.8, 0.0, 0.0]",1,(IF(C192="[0.0, 1.8, 0.0]",2,(IF(C192="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C192" t="s">
@@ -6990,7 +7298,7 @@
         <v>1590275931</v>
       </c>
       <c r="B193">
-        <f>IF(C193="[-1.8, 0.0, 0.0]",1,(IF(C193="[0.0, 1.8, 0.0]",2,(IF(C193="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C193" t="s">
@@ -7011,7 +7319,7 @@
         <v>1590275931</v>
       </c>
       <c r="B194">
-        <f>IF(C194="[-1.8, 0.0, 0.0]",1,(IF(C194="[0.0, 1.8, 0.0]",2,(IF(C194="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C194" t="s">
@@ -7032,7 +7340,7 @@
         <v>1590275931</v>
       </c>
       <c r="B195">
-        <f>IF(C195="[-1.8, 0.0, 0.0]",1,(IF(C195="[0.0, 1.8, 0.0]",2,(IF(C195="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C195" t="s">
@@ -7053,7 +7361,7 @@
         <v>1590275931</v>
       </c>
       <c r="B196">
-        <f>IF(C196="[-1.8, 0.0, 0.0]",1,(IF(C196="[0.0, 1.8, 0.0]",2,(IF(C196="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C196" t="s">
@@ -7074,7 +7382,7 @@
         <v>1590275931</v>
       </c>
       <c r="B197">
-        <f>IF(C197="[-1.8, 0.0, 0.0]",1,(IF(C197="[0.0, 1.8, 0.0]",2,(IF(C197="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C197" t="s">
@@ -7095,7 +7403,7 @@
         <v>1590275931</v>
       </c>
       <c r="B198">
-        <f>IF(C198="[-1.8, 0.0, 0.0]",1,(IF(C198="[0.0, 1.8, 0.0]",2,(IF(C198="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C198" t="s">
@@ -7116,7 +7424,7 @@
         <v>1590275931</v>
       </c>
       <c r="B199">
-        <f>IF(C199="[-1.8, 0.0, 0.0]",1,(IF(C199="[0.0, 1.8, 0.0]",2,(IF(C199="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C199" t="s">
@@ -7137,7 +7445,7 @@
         <v>1590275931</v>
       </c>
       <c r="B200">
-        <f>IF(C200="[-1.8, 0.0, 0.0]",1,(IF(C200="[0.0, 1.8, 0.0]",2,(IF(C200="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C200" t="s">
@@ -7158,7 +7466,7 @@
         <v>1590275931</v>
       </c>
       <c r="B201">
-        <f>IF(C201="[-1.8, 0.0, 0.0]",1,(IF(C201="[0.0, 1.8, 0.0]",2,(IF(C201="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C201" t="s">
@@ -7179,7 +7487,7 @@
         <v>1590275931</v>
       </c>
       <c r="B202">
-        <f>IF(C202="[-1.8, 0.0, 0.0]",1,(IF(C202="[0.0, 1.8, 0.0]",2,(IF(C202="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C202" t="s">
@@ -7200,7 +7508,7 @@
         <v>1590275931</v>
       </c>
       <c r="B203">
-        <f>IF(C203="[-1.8, 0.0, 0.0]",1,(IF(C203="[0.0, 1.8, 0.0]",2,(IF(C203="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C203" t="s">
@@ -7221,7 +7529,7 @@
         <v>1590275931</v>
       </c>
       <c r="B204">
-        <f>IF(C204="[-1.8, 0.0, 0.0]",1,(IF(C204="[0.0, 1.8, 0.0]",2,(IF(C204="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C204" t="s">
@@ -7242,7 +7550,7 @@
         <v>1590275931</v>
       </c>
       <c r="B205">
-        <f>IF(C205="[-1.8, 0.0, 0.0]",1,(IF(C205="[0.0, 1.8, 0.0]",2,(IF(C205="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C205" t="s">
@@ -7263,7 +7571,7 @@
         <v>1590275931</v>
       </c>
       <c r="B206">
-        <f>IF(C206="[-1.8, 0.0, 0.0]",1,(IF(C206="[0.0, 1.8, 0.0]",2,(IF(C206="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C206" t="s">
@@ -7284,7 +7592,7 @@
         <v>1590275931</v>
       </c>
       <c r="B207">
-        <f>IF(C207="[-1.8, 0.0, 0.0]",1,(IF(C207="[0.0, 1.8, 0.0]",2,(IF(C207="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C207" t="s">
@@ -7305,7 +7613,7 @@
         <v>1590275931</v>
       </c>
       <c r="B208">
-        <f>IF(C208="[-1.8, 0.0, 0.0]",1,(IF(C208="[0.0, 1.8, 0.0]",2,(IF(C208="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C208" t="s">
@@ -7326,7 +7634,7 @@
         <v>1590275931</v>
       </c>
       <c r="B209">
-        <f>IF(C209="[-1.8, 0.0, 0.0]",1,(IF(C209="[0.0, 1.8, 0.0]",2,(IF(C209="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C209" t="s">
@@ -7347,7 +7655,7 @@
         <v>1590275931</v>
       </c>
       <c r="B210">
-        <f>IF(C210="[-1.8, 0.0, 0.0]",1,(IF(C210="[0.0, 1.8, 0.0]",2,(IF(C210="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C210" t="s">
@@ -7371,7 +7679,7 @@
         <v>1590276411</v>
       </c>
       <c r="B212">
-        <f>IF(C212="[-1.8, 0.0, 0.0]",1,(IF(C212="[0.0, 1.8, 0.0]",2,(IF(C212="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B212:B231" si="10">IF(C212="[-1.8, 0.0, 0.0]",1,(IF(C212="[0.0, 1.8, 0.0]",2,(IF(C212="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
@@ -7392,7 +7700,7 @@
         <v>1590276411</v>
       </c>
       <c r="B213">
-        <f>IF(C213="[-1.8, 0.0, 0.0]",1,(IF(C213="[0.0, 1.8, 0.0]",2,(IF(C213="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C213" t="s">
@@ -7413,7 +7721,7 @@
         <v>1590276411</v>
       </c>
       <c r="B214">
-        <f>IF(C214="[-1.8, 0.0, 0.0]",1,(IF(C214="[0.0, 1.8, 0.0]",2,(IF(C214="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C214" t="s">
@@ -7434,7 +7742,7 @@
         <v>1590276411</v>
       </c>
       <c r="B215">
-        <f>IF(C215="[-1.8, 0.0, 0.0]",1,(IF(C215="[0.0, 1.8, 0.0]",2,(IF(C215="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C215" t="s">
@@ -7455,7 +7763,7 @@
         <v>1590276411</v>
       </c>
       <c r="B216">
-        <f>IF(C216="[-1.8, 0.0, 0.0]",1,(IF(C216="[0.0, 1.8, 0.0]",2,(IF(C216="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C216" t="s">
@@ -7476,7 +7784,7 @@
         <v>1590276411</v>
       </c>
       <c r="B217">
-        <f>IF(C217="[-1.8, 0.0, 0.0]",1,(IF(C217="[0.0, 1.8, 0.0]",2,(IF(C217="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="C217" t="s">
@@ -7497,7 +7805,7 @@
         <v>1590276411</v>
       </c>
       <c r="B218">
-        <f>IF(C218="[-1.8, 0.0, 0.0]",1,(IF(C218="[0.0, 1.8, 0.0]",2,(IF(C218="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="C218" t="s">
@@ -7518,7 +7826,7 @@
         <v>1590276411</v>
       </c>
       <c r="B219">
-        <f>IF(C219="[-1.8, 0.0, 0.0]",1,(IF(C219="[0.0, 1.8, 0.0]",2,(IF(C219="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="C219" t="s">
@@ -7539,7 +7847,7 @@
         <v>1590276411</v>
       </c>
       <c r="B220">
-        <f>IF(C220="[-1.8, 0.0, 0.0]",1,(IF(C220="[0.0, 1.8, 0.0]",2,(IF(C220="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="C220" t="s">
@@ -7560,7 +7868,7 @@
         <v>1590276411</v>
       </c>
       <c r="B221">
-        <f>IF(C221="[-1.8, 0.0, 0.0]",1,(IF(C221="[0.0, 1.8, 0.0]",2,(IF(C221="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="C221" t="s">
@@ -7581,7 +7889,7 @@
         <v>1590276411</v>
       </c>
       <c r="B222">
-        <f>IF(C222="[-1.8, 0.0, 0.0]",1,(IF(C222="[0.0, 1.8, 0.0]",2,(IF(C222="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C222" t="s">
@@ -7602,7 +7910,7 @@
         <v>1590276411</v>
       </c>
       <c r="B223">
-        <f>IF(C223="[-1.8, 0.0, 0.0]",1,(IF(C223="[0.0, 1.8, 0.0]",2,(IF(C223="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C223" t="s">
@@ -7623,7 +7931,7 @@
         <v>1590276411</v>
       </c>
       <c r="B224">
-        <f>IF(C224="[-1.8, 0.0, 0.0]",1,(IF(C224="[0.0, 1.8, 0.0]",2,(IF(C224="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C224" t="s">
@@ -7644,7 +7952,7 @@
         <v>1590276411</v>
       </c>
       <c r="B225">
-        <f>IF(C225="[-1.8, 0.0, 0.0]",1,(IF(C225="[0.0, 1.8, 0.0]",2,(IF(C225="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C225" t="s">
@@ -7665,7 +7973,7 @@
         <v>1590276411</v>
       </c>
       <c r="B226">
-        <f>IF(C226="[-1.8, 0.0, 0.0]",1,(IF(C226="[0.0, 1.8, 0.0]",2,(IF(C226="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C226" t="s">
@@ -7686,7 +7994,7 @@
         <v>1590276411</v>
       </c>
       <c r="B227">
-        <f>IF(C227="[-1.8, 0.0, 0.0]",1,(IF(C227="[0.0, 1.8, 0.0]",2,(IF(C227="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C227" t="s">
@@ -7707,7 +8015,7 @@
         <v>1590276411</v>
       </c>
       <c r="B228">
-        <f>IF(C228="[-1.8, 0.0, 0.0]",1,(IF(C228="[0.0, 1.8, 0.0]",2,(IF(C228="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C228" t="s">
@@ -7728,7 +8036,7 @@
         <v>1590276411</v>
       </c>
       <c r="B229">
-        <f>IF(C229="[-1.8, 0.0, 0.0]",1,(IF(C229="[0.0, 1.8, 0.0]",2,(IF(C229="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C229" t="s">
@@ -7749,7 +8057,7 @@
         <v>1590276411</v>
       </c>
       <c r="B230">
-        <f>IF(C230="[-1.8, 0.0, 0.0]",1,(IF(C230="[0.0, 1.8, 0.0]",2,(IF(C230="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C230" t="s">
@@ -7770,7 +8078,7 @@
         <v>1590276411</v>
       </c>
       <c r="B231">
-        <f>IF(C231="[-1.8, 0.0, 0.0]",1,(IF(C231="[0.0, 1.8, 0.0]",2,(IF(C231="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C231" t="s">
@@ -7843,7 +8151,7 @@
         <v>1590269808</v>
       </c>
       <c r="B3">
-        <f>IF(C3="[-1.8, 0.0, 0.0]",1,(IF(C3="[0.0, 1.8, 0.0]",2,(IF(C3="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B3:B66" si="0">IF(C3="[-1.8, 0.0, 0.0]",1,(IF(C3="[0.0, 1.8, 0.0]",2,(IF(C3="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -7864,7 +8172,7 @@
         <v>1590269808</v>
       </c>
       <c r="B4">
-        <f>IF(C4="[-1.8, 0.0, 0.0]",1,(IF(C4="[0.0, 1.8, 0.0]",2,(IF(C4="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -7885,7 +8193,7 @@
         <v>1590269808</v>
       </c>
       <c r="B5">
-        <f>IF(C5="[-1.8, 0.0, 0.0]",1,(IF(C5="[0.0, 1.8, 0.0]",2,(IF(C5="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -7906,7 +8214,7 @@
         <v>1590269808</v>
       </c>
       <c r="B6">
-        <f>IF(C6="[-1.8, 0.0, 0.0]",1,(IF(C6="[0.0, 1.8, 0.0]",2,(IF(C6="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -7927,7 +8235,7 @@
         <v>1590269808</v>
       </c>
       <c r="B7">
-        <f>IF(C7="[-1.8, 0.0, 0.0]",1,(IF(C7="[0.0, 1.8, 0.0]",2,(IF(C7="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -7948,7 +8256,7 @@
         <v>1590269808</v>
       </c>
       <c r="B8">
-        <f>IF(C8="[-1.8, 0.0, 0.0]",1,(IF(C8="[0.0, 1.8, 0.0]",2,(IF(C8="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" t="s">
@@ -7969,7 +8277,7 @@
         <v>1590269808</v>
       </c>
       <c r="B9">
-        <f>IF(C9="[-1.8, 0.0, 0.0]",1,(IF(C9="[0.0, 1.8, 0.0]",2,(IF(C9="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" t="s">
@@ -7990,7 +8298,7 @@
         <v>1590269808</v>
       </c>
       <c r="B10">
-        <f>IF(C10="[-1.8, 0.0, 0.0]",1,(IF(C10="[0.0, 1.8, 0.0]",2,(IF(C10="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C10" t="s">
@@ -8011,7 +8319,7 @@
         <v>1590269808</v>
       </c>
       <c r="B11">
-        <f>IF(C11="[-1.8, 0.0, 0.0]",1,(IF(C11="[0.0, 1.8, 0.0]",2,(IF(C11="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C11" t="s">
@@ -8032,7 +8340,7 @@
         <v>1590269808</v>
       </c>
       <c r="B12">
-        <f>IF(C12="[-1.8, 0.0, 0.0]",1,(IF(C12="[0.0, 1.8, 0.0]",2,(IF(C12="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C12" t="s">
@@ -8053,7 +8361,7 @@
         <v>1590269808</v>
       </c>
       <c r="B13">
-        <f>IF(C13="[-1.8, 0.0, 0.0]",1,(IF(C13="[0.0, 1.8, 0.0]",2,(IF(C13="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C13" t="s">
@@ -8074,7 +8382,7 @@
         <v>1590269808</v>
       </c>
       <c r="B14">
-        <f>IF(C14="[-1.8, 0.0, 0.0]",1,(IF(C14="[0.0, 1.8, 0.0]",2,(IF(C14="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C14" t="s">
@@ -8095,7 +8403,7 @@
         <v>1590269808</v>
       </c>
       <c r="B15">
-        <f>IF(C15="[-1.8, 0.0, 0.0]",1,(IF(C15="[0.0, 1.8, 0.0]",2,(IF(C15="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C15" t="s">
@@ -8116,7 +8424,7 @@
         <v>1590269808</v>
       </c>
       <c r="B16">
-        <f>IF(C16="[-1.8, 0.0, 0.0]",1,(IF(C16="[0.0, 1.8, 0.0]",2,(IF(C16="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -8137,7 +8445,7 @@
         <v>1590269808</v>
       </c>
       <c r="B17">
-        <f>IF(C17="[-1.8, 0.0, 0.0]",1,(IF(C17="[0.0, 1.8, 0.0]",2,(IF(C17="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C17" t="s">
@@ -8158,7 +8466,7 @@
         <v>1590269808</v>
       </c>
       <c r="B18">
-        <f>IF(C18="[-1.8, 0.0, 0.0]",1,(IF(C18="[0.0, 1.8, 0.0]",2,(IF(C18="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C18" t="s">
@@ -8179,7 +8487,7 @@
         <v>1590269808</v>
       </c>
       <c r="B19">
-        <f>IF(C19="[-1.8, 0.0, 0.0]",1,(IF(C19="[0.0, 1.8, 0.0]",2,(IF(C19="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C19" t="s">
@@ -8200,7 +8508,7 @@
         <v>1590269808</v>
       </c>
       <c r="B20">
-        <f>IF(C20="[-1.8, 0.0, 0.0]",1,(IF(C20="[0.0, 1.8, 0.0]",2,(IF(C20="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C20" t="s">
@@ -8221,7 +8529,7 @@
         <v>1590269808</v>
       </c>
       <c r="B21">
-        <f>IF(C21="[-1.8, 0.0, 0.0]",1,(IF(C21="[0.0, 1.8, 0.0]",2,(IF(C21="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C21" t="s">
@@ -8242,7 +8550,7 @@
         <v>1590269808</v>
       </c>
       <c r="B22">
-        <f>IF(C22="[-1.8, 0.0, 0.0]",1,(IF(C22="[0.0, 1.8, 0.0]",2,(IF(C22="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C22" t="s">
@@ -8263,7 +8571,7 @@
         <v>1590270259</v>
       </c>
       <c r="B23">
-        <f>IF(C23="[-1.8, 0.0, 0.0]",1,(IF(C23="[0.0, 1.8, 0.0]",2,(IF(C23="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -8284,7 +8592,7 @@
         <v>1590270259</v>
       </c>
       <c r="B24">
-        <f>IF(C24="[-1.8, 0.0, 0.0]",1,(IF(C24="[0.0, 1.8, 0.0]",2,(IF(C24="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -8305,7 +8613,7 @@
         <v>1590270259</v>
       </c>
       <c r="B25">
-        <f>IF(C25="[-1.8, 0.0, 0.0]",1,(IF(C25="[0.0, 1.8, 0.0]",2,(IF(C25="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -8326,7 +8634,7 @@
         <v>1590270259</v>
       </c>
       <c r="B26">
-        <f>IF(C26="[-1.8, 0.0, 0.0]",1,(IF(C26="[0.0, 1.8, 0.0]",2,(IF(C26="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -8347,7 +8655,7 @@
         <v>1590270259</v>
       </c>
       <c r="B27">
-        <f>IF(C27="[-1.8, 0.0, 0.0]",1,(IF(C27="[0.0, 1.8, 0.0]",2,(IF(C27="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -8368,7 +8676,7 @@
         <v>1590270259</v>
       </c>
       <c r="B28">
-        <f>IF(C28="[-1.8, 0.0, 0.0]",1,(IF(C28="[0.0, 1.8, 0.0]",2,(IF(C28="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C28" t="s">
@@ -8389,7 +8697,7 @@
         <v>1590270259</v>
       </c>
       <c r="B29">
-        <f>IF(C29="[-1.8, 0.0, 0.0]",1,(IF(C29="[0.0, 1.8, 0.0]",2,(IF(C29="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C29" t="s">
@@ -8410,7 +8718,7 @@
         <v>1590270259</v>
       </c>
       <c r="B30">
-        <f>IF(C30="[-1.8, 0.0, 0.0]",1,(IF(C30="[0.0, 1.8, 0.0]",2,(IF(C30="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C30" t="s">
@@ -8431,7 +8739,7 @@
         <v>1590270259</v>
       </c>
       <c r="B31">
-        <f>IF(C31="[-1.8, 0.0, 0.0]",1,(IF(C31="[0.0, 1.8, 0.0]",2,(IF(C31="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C31" t="s">
@@ -8452,7 +8760,7 @@
         <v>1590270259</v>
       </c>
       <c r="B32">
-        <f>IF(C32="[-1.8, 0.0, 0.0]",1,(IF(C32="[0.0, 1.8, 0.0]",2,(IF(C32="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C32" t="s">
@@ -8473,7 +8781,7 @@
         <v>1590270259</v>
       </c>
       <c r="B33">
-        <f>IF(C33="[-1.8, 0.0, 0.0]",1,(IF(C33="[0.0, 1.8, 0.0]",2,(IF(C33="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C33" t="s">
@@ -8494,7 +8802,7 @@
         <v>1590270259</v>
       </c>
       <c r="B34">
-        <f>IF(C34="[-1.8, 0.0, 0.0]",1,(IF(C34="[0.0, 1.8, 0.0]",2,(IF(C34="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C34" t="s">
@@ -8515,7 +8823,7 @@
         <v>1590270259</v>
       </c>
       <c r="B35">
-        <f>IF(C35="[-1.8, 0.0, 0.0]",1,(IF(C35="[0.0, 1.8, 0.0]",2,(IF(C35="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C35" t="s">
@@ -8536,7 +8844,7 @@
         <v>1590270259</v>
       </c>
       <c r="B36">
-        <f>IF(C36="[-1.8, 0.0, 0.0]",1,(IF(C36="[0.0, 1.8, 0.0]",2,(IF(C36="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C36" t="s">
@@ -8557,7 +8865,7 @@
         <v>1590270259</v>
       </c>
       <c r="B37">
-        <f>IF(C37="[-1.8, 0.0, 0.0]",1,(IF(C37="[0.0, 1.8, 0.0]",2,(IF(C37="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C37" t="s">
@@ -8578,7 +8886,7 @@
         <v>1590270259</v>
       </c>
       <c r="B38">
-        <f>IF(C38="[-1.8, 0.0, 0.0]",1,(IF(C38="[0.0, 1.8, 0.0]",2,(IF(C38="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C38" t="s">
@@ -8599,7 +8907,7 @@
         <v>1590270259</v>
       </c>
       <c r="B39">
-        <f>IF(C39="[-1.8, 0.0, 0.0]",1,(IF(C39="[0.0, 1.8, 0.0]",2,(IF(C39="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C39" t="s">
@@ -8620,7 +8928,7 @@
         <v>1590270259</v>
       </c>
       <c r="B40">
-        <f>IF(C40="[-1.8, 0.0, 0.0]",1,(IF(C40="[0.0, 1.8, 0.0]",2,(IF(C40="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C40" t="s">
@@ -8641,7 +8949,7 @@
         <v>1590270259</v>
       </c>
       <c r="B41">
-        <f>IF(C41="[-1.8, 0.0, 0.0]",1,(IF(C41="[0.0, 1.8, 0.0]",2,(IF(C41="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C41" t="s">
@@ -8662,7 +8970,7 @@
         <v>1590270259</v>
       </c>
       <c r="B42">
-        <f>IF(C42="[-1.8, 0.0, 0.0]",1,(IF(C42="[0.0, 1.8, 0.0]",2,(IF(C42="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C42" t="s">
@@ -8683,7 +8991,7 @@
         <v>1590271053</v>
       </c>
       <c r="B43">
-        <f>IF(C43="[-1.8, 0.0, 0.0]",1,(IF(C43="[0.0, 1.8, 0.0]",2,(IF(C43="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C43" t="s">
@@ -8704,7 +9012,7 @@
         <v>1590271053</v>
       </c>
       <c r="B44">
-        <f>IF(C44="[-1.8, 0.0, 0.0]",1,(IF(C44="[0.0, 1.8, 0.0]",2,(IF(C44="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C44" t="s">
@@ -8725,7 +9033,7 @@
         <v>1590271053</v>
       </c>
       <c r="B45">
-        <f>IF(C45="[-1.8, 0.0, 0.0]",1,(IF(C45="[0.0, 1.8, 0.0]",2,(IF(C45="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C45" t="s">
@@ -8746,7 +9054,7 @@
         <v>1590271053</v>
       </c>
       <c r="B46">
-        <f>IF(C46="[-1.8, 0.0, 0.0]",1,(IF(C46="[0.0, 1.8, 0.0]",2,(IF(C46="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C46" t="s">
@@ -8767,7 +9075,7 @@
         <v>1590271053</v>
       </c>
       <c r="B47">
-        <f>IF(C47="[-1.8, 0.0, 0.0]",1,(IF(C47="[0.0, 1.8, 0.0]",2,(IF(C47="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C47" t="s">
@@ -8788,7 +9096,7 @@
         <v>1590271053</v>
       </c>
       <c r="B48">
-        <f>IF(C48="[-1.8, 0.0, 0.0]",1,(IF(C48="[0.0, 1.8, 0.0]",2,(IF(C48="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C48" t="s">
@@ -8809,7 +9117,7 @@
         <v>1590271053</v>
       </c>
       <c r="B49">
-        <f>IF(C49="[-1.8, 0.0, 0.0]",1,(IF(C49="[0.0, 1.8, 0.0]",2,(IF(C49="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C49" t="s">
@@ -8830,7 +9138,7 @@
         <v>1590271053</v>
       </c>
       <c r="B50">
-        <f>IF(C50="[-1.8, 0.0, 0.0]",1,(IF(C50="[0.0, 1.8, 0.0]",2,(IF(C50="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C50" t="s">
@@ -8851,7 +9159,7 @@
         <v>1590271053</v>
       </c>
       <c r="B51">
-        <f>IF(C51="[-1.8, 0.0, 0.0]",1,(IF(C51="[0.0, 1.8, 0.0]",2,(IF(C51="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C51" t="s">
@@ -8872,7 +9180,7 @@
         <v>1590271053</v>
       </c>
       <c r="B52">
-        <f>IF(C52="[-1.8, 0.0, 0.0]",1,(IF(C52="[0.0, 1.8, 0.0]",2,(IF(C52="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C52" t="s">
@@ -8893,7 +9201,7 @@
         <v>1590271053</v>
       </c>
       <c r="B53">
-        <f>IF(C53="[-1.8, 0.0, 0.0]",1,(IF(C53="[0.0, 1.8, 0.0]",2,(IF(C53="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C53" t="s">
@@ -8914,7 +9222,7 @@
         <v>1590271053</v>
       </c>
       <c r="B54">
-        <f>IF(C54="[-1.8, 0.0, 0.0]",1,(IF(C54="[0.0, 1.8, 0.0]",2,(IF(C54="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C54" t="s">
@@ -8935,7 +9243,7 @@
         <v>1590271053</v>
       </c>
       <c r="B55">
-        <f>IF(C55="[-1.8, 0.0, 0.0]",1,(IF(C55="[0.0, 1.8, 0.0]",2,(IF(C55="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C55" t="s">
@@ -8956,7 +9264,7 @@
         <v>1590271053</v>
       </c>
       <c r="B56">
-        <f>IF(C56="[-1.8, 0.0, 0.0]",1,(IF(C56="[0.0, 1.8, 0.0]",2,(IF(C56="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C56" t="s">
@@ -8977,7 +9285,7 @@
         <v>1590271053</v>
       </c>
       <c r="B57">
-        <f>IF(C57="[-1.8, 0.0, 0.0]",1,(IF(C57="[0.0, 1.8, 0.0]",2,(IF(C57="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C57" t="s">
@@ -8998,7 +9306,7 @@
         <v>1590271053</v>
       </c>
       <c r="B58">
-        <f>IF(C58="[-1.8, 0.0, 0.0]",1,(IF(C58="[0.0, 1.8, 0.0]",2,(IF(C58="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C58" t="s">
@@ -9019,7 +9327,7 @@
         <v>1590271053</v>
       </c>
       <c r="B59">
-        <f>IF(C59="[-1.8, 0.0, 0.0]",1,(IF(C59="[0.0, 1.8, 0.0]",2,(IF(C59="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C59" t="s">
@@ -9040,7 +9348,7 @@
         <v>1590271053</v>
       </c>
       <c r="B60">
-        <f>IF(C60="[-1.8, 0.0, 0.0]",1,(IF(C60="[0.0, 1.8, 0.0]",2,(IF(C60="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C60" t="s">
@@ -9061,7 +9369,7 @@
         <v>1590271053</v>
       </c>
       <c r="B61">
-        <f>IF(C61="[-1.8, 0.0, 0.0]",1,(IF(C61="[0.0, 1.8, 0.0]",2,(IF(C61="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C61" t="s">
@@ -9082,7 +9390,7 @@
         <v>1590271053</v>
       </c>
       <c r="B62">
-        <f>IF(C62="[-1.8, 0.0, 0.0]",1,(IF(C62="[0.0, 1.8, 0.0]",2,(IF(C62="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C62" t="s">
@@ -9103,7 +9411,7 @@
         <v>1590271725</v>
       </c>
       <c r="B63">
-        <f>IF(C63="[-1.8, 0.0, 0.0]",1,(IF(C63="[0.0, 1.8, 0.0]",2,(IF(C63="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C63" t="s">
@@ -9124,7 +9432,7 @@
         <v>1590271725</v>
       </c>
       <c r="B64">
-        <f>IF(C64="[-1.8, 0.0, 0.0]",1,(IF(C64="[0.0, 1.8, 0.0]",2,(IF(C64="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C64" t="s">
@@ -9145,7 +9453,7 @@
         <v>1590271725</v>
       </c>
       <c r="B65">
-        <f>IF(C65="[-1.8, 0.0, 0.0]",1,(IF(C65="[0.0, 1.8, 0.0]",2,(IF(C65="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C65" t="s">
@@ -9166,7 +9474,7 @@
         <v>1590271725</v>
       </c>
       <c r="B66">
-        <f>IF(C66="[-1.8, 0.0, 0.0]",1,(IF(C66="[0.0, 1.8, 0.0]",2,(IF(C66="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C66" t="s">
@@ -9187,7 +9495,7 @@
         <v>1590271725</v>
       </c>
       <c r="B67">
-        <f>IF(C67="[-1.8, 0.0, 0.0]",1,(IF(C67="[0.0, 1.8, 0.0]",2,(IF(C67="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B67:B130" si="1">IF(C67="[-1.8, 0.0, 0.0]",1,(IF(C67="[0.0, 1.8, 0.0]",2,(IF(C67="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
       <c r="C67" t="s">
@@ -9208,7 +9516,7 @@
         <v>1590271725</v>
       </c>
       <c r="B68">
-        <f>IF(C68="[-1.8, 0.0, 0.0]",1,(IF(C68="[0.0, 1.8, 0.0]",2,(IF(C68="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C68" t="s">
@@ -9229,7 +9537,7 @@
         <v>1590271725</v>
       </c>
       <c r="B69">
-        <f>IF(C69="[-1.8, 0.0, 0.0]",1,(IF(C69="[0.0, 1.8, 0.0]",2,(IF(C69="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C69" t="s">
@@ -9250,7 +9558,7 @@
         <v>1590271725</v>
       </c>
       <c r="B70">
-        <f>IF(C70="[-1.8, 0.0, 0.0]",1,(IF(C70="[0.0, 1.8, 0.0]",2,(IF(C70="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C70" t="s">
@@ -9271,7 +9579,7 @@
         <v>1590271725</v>
       </c>
       <c r="B71">
-        <f>IF(C71="[-1.8, 0.0, 0.0]",1,(IF(C71="[0.0, 1.8, 0.0]",2,(IF(C71="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C71" t="s">
@@ -9292,7 +9600,7 @@
         <v>1590271725</v>
       </c>
       <c r="B72">
-        <f>IF(C72="[-1.8, 0.0, 0.0]",1,(IF(C72="[0.0, 1.8, 0.0]",2,(IF(C72="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C72" t="s">
@@ -9313,7 +9621,7 @@
         <v>1590271725</v>
       </c>
       <c r="B73">
-        <f>IF(C73="[-1.8, 0.0, 0.0]",1,(IF(C73="[0.0, 1.8, 0.0]",2,(IF(C73="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C73" t="s">
@@ -9334,7 +9642,7 @@
         <v>1590271725</v>
       </c>
       <c r="B74">
-        <f>IF(C74="[-1.8, 0.0, 0.0]",1,(IF(C74="[0.0, 1.8, 0.0]",2,(IF(C74="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C74" t="s">
@@ -9355,7 +9663,7 @@
         <v>1590271725</v>
       </c>
       <c r="B75">
-        <f>IF(C75="[-1.8, 0.0, 0.0]",1,(IF(C75="[0.0, 1.8, 0.0]",2,(IF(C75="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C75" t="s">
@@ -9376,7 +9684,7 @@
         <v>1590271725</v>
       </c>
       <c r="B76">
-        <f>IF(C76="[-1.8, 0.0, 0.0]",1,(IF(C76="[0.0, 1.8, 0.0]",2,(IF(C76="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C76" t="s">
@@ -9397,7 +9705,7 @@
         <v>1590271725</v>
       </c>
       <c r="B77">
-        <f>IF(C77="[-1.8, 0.0, 0.0]",1,(IF(C77="[0.0, 1.8, 0.0]",2,(IF(C77="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C77" t="s">
@@ -9418,7 +9726,7 @@
         <v>1590271725</v>
       </c>
       <c r="B78">
-        <f>IF(C78="[-1.8, 0.0, 0.0]",1,(IF(C78="[0.0, 1.8, 0.0]",2,(IF(C78="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C78" t="s">
@@ -9439,7 +9747,7 @@
         <v>1590271725</v>
       </c>
       <c r="B79">
-        <f>IF(C79="[-1.8, 0.0, 0.0]",1,(IF(C79="[0.0, 1.8, 0.0]",2,(IF(C79="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C79" t="s">
@@ -9460,7 +9768,7 @@
         <v>1590271725</v>
       </c>
       <c r="B80">
-        <f>IF(C80="[-1.8, 0.0, 0.0]",1,(IF(C80="[0.0, 1.8, 0.0]",2,(IF(C80="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C80" t="s">
@@ -9481,7 +9789,7 @@
         <v>1590271725</v>
       </c>
       <c r="B81">
-        <f>IF(C81="[-1.8, 0.0, 0.0]",1,(IF(C81="[0.0, 1.8, 0.0]",2,(IF(C81="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C81" t="s">
@@ -9502,7 +9810,7 @@
         <v>1590271725</v>
       </c>
       <c r="B82">
-        <f>IF(C82="[-1.8, 0.0, 0.0]",1,(IF(C82="[0.0, 1.8, 0.0]",2,(IF(C82="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C82" t="s">
@@ -9523,7 +9831,7 @@
         <v>1590272646</v>
       </c>
       <c r="B83">
-        <f>IF(C83="[-1.8, 0.0, 0.0]",1,(IF(C83="[0.0, 1.8, 0.0]",2,(IF(C83="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C83" t="s">
@@ -9544,7 +9852,7 @@
         <v>1590272646</v>
       </c>
       <c r="B84">
-        <f>IF(C84="[-1.8, 0.0, 0.0]",1,(IF(C84="[0.0, 1.8, 0.0]",2,(IF(C84="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C84" t="s">
@@ -9565,7 +9873,7 @@
         <v>1590272646</v>
       </c>
       <c r="B85">
-        <f>IF(C85="[-1.8, 0.0, 0.0]",1,(IF(C85="[0.0, 1.8, 0.0]",2,(IF(C85="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C85" t="s">
@@ -9586,7 +9894,7 @@
         <v>1590272646</v>
       </c>
       <c r="B86">
-        <f>IF(C86="[-1.8, 0.0, 0.0]",1,(IF(C86="[0.0, 1.8, 0.0]",2,(IF(C86="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C86" t="s">
@@ -9607,7 +9915,7 @@
         <v>1590272646</v>
       </c>
       <c r="B87">
-        <f>IF(C87="[-1.8, 0.0, 0.0]",1,(IF(C87="[0.0, 1.8, 0.0]",2,(IF(C87="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C87" t="s">
@@ -9628,7 +9936,7 @@
         <v>1590272646</v>
       </c>
       <c r="B88">
-        <f>IF(C88="[-1.8, 0.0, 0.0]",1,(IF(C88="[0.0, 1.8, 0.0]",2,(IF(C88="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C88" t="s">
@@ -9649,7 +9957,7 @@
         <v>1590272646</v>
       </c>
       <c r="B89">
-        <f>IF(C89="[-1.8, 0.0, 0.0]",1,(IF(C89="[0.0, 1.8, 0.0]",2,(IF(C89="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C89" t="s">
@@ -9670,7 +9978,7 @@
         <v>1590272646</v>
       </c>
       <c r="B90">
-        <f>IF(C90="[-1.8, 0.0, 0.0]",1,(IF(C90="[0.0, 1.8, 0.0]",2,(IF(C90="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C90" t="s">
@@ -9691,7 +9999,7 @@
         <v>1590272646</v>
       </c>
       <c r="B91">
-        <f>IF(C91="[-1.8, 0.0, 0.0]",1,(IF(C91="[0.0, 1.8, 0.0]",2,(IF(C91="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C91" t="s">
@@ -9712,7 +10020,7 @@
         <v>1590272646</v>
       </c>
       <c r="B92">
-        <f>IF(C92="[-1.8, 0.0, 0.0]",1,(IF(C92="[0.0, 1.8, 0.0]",2,(IF(C92="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C92" t="s">
@@ -9733,7 +10041,7 @@
         <v>1590272646</v>
       </c>
       <c r="B93">
-        <f>IF(C93="[-1.8, 0.0, 0.0]",1,(IF(C93="[0.0, 1.8, 0.0]",2,(IF(C93="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C93" t="s">
@@ -9754,7 +10062,7 @@
         <v>1590272646</v>
       </c>
       <c r="B94">
-        <f>IF(C94="[-1.8, 0.0, 0.0]",1,(IF(C94="[0.0, 1.8, 0.0]",2,(IF(C94="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C94" t="s">
@@ -9775,7 +10083,7 @@
         <v>1590272646</v>
       </c>
       <c r="B95">
-        <f>IF(C95="[-1.8, 0.0, 0.0]",1,(IF(C95="[0.0, 1.8, 0.0]",2,(IF(C95="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C95" t="s">
@@ -9796,7 +10104,7 @@
         <v>1590272646</v>
       </c>
       <c r="B96">
-        <f>IF(C96="[-1.8, 0.0, 0.0]",1,(IF(C96="[0.0, 1.8, 0.0]",2,(IF(C96="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C96" t="s">
@@ -9817,7 +10125,7 @@
         <v>1590272646</v>
       </c>
       <c r="B97">
-        <f>IF(C97="[-1.8, 0.0, 0.0]",1,(IF(C97="[0.0, 1.8, 0.0]",2,(IF(C97="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C97" t="s">
@@ -9838,7 +10146,7 @@
         <v>1590272646</v>
       </c>
       <c r="B98">
-        <f>IF(C98="[-1.8, 0.0, 0.0]",1,(IF(C98="[0.0, 1.8, 0.0]",2,(IF(C98="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C98" t="s">
@@ -9859,7 +10167,7 @@
         <v>1590272646</v>
       </c>
       <c r="B99">
-        <f>IF(C99="[-1.8, 0.0, 0.0]",1,(IF(C99="[0.0, 1.8, 0.0]",2,(IF(C99="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C99" t="s">
@@ -9880,7 +10188,7 @@
         <v>1590272646</v>
       </c>
       <c r="B100">
-        <f>IF(C100="[-1.8, 0.0, 0.0]",1,(IF(C100="[0.0, 1.8, 0.0]",2,(IF(C100="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C100" t="s">
@@ -9901,7 +10209,7 @@
         <v>1590272646</v>
       </c>
       <c r="B101">
-        <f>IF(C101="[-1.8, 0.0, 0.0]",1,(IF(C101="[0.0, 1.8, 0.0]",2,(IF(C101="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C101" t="s">
@@ -9922,7 +10230,7 @@
         <v>1590272646</v>
       </c>
       <c r="B102">
-        <f>IF(C102="[-1.8, 0.0, 0.0]",1,(IF(C102="[0.0, 1.8, 0.0]",2,(IF(C102="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C102" t="s">
@@ -9943,7 +10251,7 @@
         <v>1590273485</v>
       </c>
       <c r="B103">
-        <f>IF(C103="[-1.8, 0.0, 0.0]",1,(IF(C103="[0.0, 1.8, 0.0]",2,(IF(C103="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C103" t="s">
@@ -9964,7 +10272,7 @@
         <v>1590273485</v>
       </c>
       <c r="B104">
-        <f>IF(C104="[-1.8, 0.0, 0.0]",1,(IF(C104="[0.0, 1.8, 0.0]",2,(IF(C104="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C104" t="s">
@@ -9985,7 +10293,7 @@
         <v>1590273485</v>
       </c>
       <c r="B105">
-        <f>IF(C105="[-1.8, 0.0, 0.0]",1,(IF(C105="[0.0, 1.8, 0.0]",2,(IF(C105="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C105" t="s">
@@ -10006,7 +10314,7 @@
         <v>1590273485</v>
       </c>
       <c r="B106">
-        <f>IF(C106="[-1.8, 0.0, 0.0]",1,(IF(C106="[0.0, 1.8, 0.0]",2,(IF(C106="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C106" t="s">
@@ -10027,7 +10335,7 @@
         <v>1590273485</v>
       </c>
       <c r="B107">
-        <f>IF(C107="[-1.8, 0.0, 0.0]",1,(IF(C107="[0.0, 1.8, 0.0]",2,(IF(C107="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C107" t="s">
@@ -10048,7 +10356,7 @@
         <v>1590273485</v>
       </c>
       <c r="B108">
-        <f>IF(C108="[-1.8, 0.0, 0.0]",1,(IF(C108="[0.0, 1.8, 0.0]",2,(IF(C108="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C108" t="s">
@@ -10069,7 +10377,7 @@
         <v>1590273485</v>
       </c>
       <c r="B109">
-        <f>IF(C109="[-1.8, 0.0, 0.0]",1,(IF(C109="[0.0, 1.8, 0.0]",2,(IF(C109="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C109" t="s">
@@ -10090,7 +10398,7 @@
         <v>1590273485</v>
       </c>
       <c r="B110">
-        <f>IF(C110="[-1.8, 0.0, 0.0]",1,(IF(C110="[0.0, 1.8, 0.0]",2,(IF(C110="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C110" t="s">
@@ -10111,7 +10419,7 @@
         <v>1590273485</v>
       </c>
       <c r="B111">
-        <f>IF(C111="[-1.8, 0.0, 0.0]",1,(IF(C111="[0.0, 1.8, 0.0]",2,(IF(C111="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C111" t="s">
@@ -10132,7 +10440,7 @@
         <v>1590273485</v>
       </c>
       <c r="B112">
-        <f>IF(C112="[-1.8, 0.0, 0.0]",1,(IF(C112="[0.0, 1.8, 0.0]",2,(IF(C112="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C112" t="s">
@@ -10153,7 +10461,7 @@
         <v>1590273485</v>
       </c>
       <c r="B113">
-        <f>IF(C113="[-1.8, 0.0, 0.0]",1,(IF(C113="[0.0, 1.8, 0.0]",2,(IF(C113="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C113" t="s">
@@ -10174,7 +10482,7 @@
         <v>1590273485</v>
       </c>
       <c r="B114">
-        <f>IF(C114="[-1.8, 0.0, 0.0]",1,(IF(C114="[0.0, 1.8, 0.0]",2,(IF(C114="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C114" t="s">
@@ -10195,7 +10503,7 @@
         <v>1590273485</v>
       </c>
       <c r="B115">
-        <f>IF(C115="[-1.8, 0.0, 0.0]",1,(IF(C115="[0.0, 1.8, 0.0]",2,(IF(C115="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C115" t="s">
@@ -10216,7 +10524,7 @@
         <v>1590273485</v>
       </c>
       <c r="B116">
-        <f>IF(C116="[-1.8, 0.0, 0.0]",1,(IF(C116="[0.0, 1.8, 0.0]",2,(IF(C116="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C116" t="s">
@@ -10237,7 +10545,7 @@
         <v>1590273485</v>
       </c>
       <c r="B117">
-        <f>IF(C117="[-1.8, 0.0, 0.0]",1,(IF(C117="[0.0, 1.8, 0.0]",2,(IF(C117="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C117" t="s">
@@ -10258,7 +10566,7 @@
         <v>1590273485</v>
       </c>
       <c r="B118">
-        <f>IF(C118="[-1.8, 0.0, 0.0]",1,(IF(C118="[0.0, 1.8, 0.0]",2,(IF(C118="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C118" t="s">
@@ -10279,7 +10587,7 @@
         <v>1590273485</v>
       </c>
       <c r="B119">
-        <f>IF(C119="[-1.8, 0.0, 0.0]",1,(IF(C119="[0.0, 1.8, 0.0]",2,(IF(C119="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C119" t="s">
@@ -10300,7 +10608,7 @@
         <v>1590273485</v>
       </c>
       <c r="B120">
-        <f>IF(C120="[-1.8, 0.0, 0.0]",1,(IF(C120="[0.0, 1.8, 0.0]",2,(IF(C120="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C120" t="s">
@@ -10321,7 +10629,7 @@
         <v>1590273485</v>
       </c>
       <c r="B121">
-        <f>IF(C121="[-1.8, 0.0, 0.0]",1,(IF(C121="[0.0, 1.8, 0.0]",2,(IF(C121="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C121" t="s">
@@ -10342,7 +10650,7 @@
         <v>1590273485</v>
       </c>
       <c r="B122">
-        <f>IF(C122="[-1.8, 0.0, 0.0]",1,(IF(C122="[0.0, 1.8, 0.0]",2,(IF(C122="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C122" t="s">
@@ -10363,7 +10671,7 @@
         <v>1590274217</v>
       </c>
       <c r="B123">
-        <f>IF(C123="[-1.8, 0.0, 0.0]",1,(IF(C123="[0.0, 1.8, 0.0]",2,(IF(C123="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C123" t="s">
@@ -10384,7 +10692,7 @@
         <v>1590274217</v>
       </c>
       <c r="B124">
-        <f>IF(C124="[-1.8, 0.0, 0.0]",1,(IF(C124="[0.0, 1.8, 0.0]",2,(IF(C124="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C124" t="s">
@@ -10405,7 +10713,7 @@
         <v>1590274217</v>
       </c>
       <c r="B125">
-        <f>IF(C125="[-1.8, 0.0, 0.0]",1,(IF(C125="[0.0, 1.8, 0.0]",2,(IF(C125="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C125" t="s">
@@ -10426,7 +10734,7 @@
         <v>1590274217</v>
       </c>
       <c r="B126">
-        <f>IF(C126="[-1.8, 0.0, 0.0]",1,(IF(C126="[0.0, 1.8, 0.0]",2,(IF(C126="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C126" t="s">
@@ -10447,7 +10755,7 @@
         <v>1590274217</v>
       </c>
       <c r="B127">
-        <f>IF(C127="[-1.8, 0.0, 0.0]",1,(IF(C127="[0.0, 1.8, 0.0]",2,(IF(C127="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C127" t="s">
@@ -10468,7 +10776,7 @@
         <v>1590274217</v>
       </c>
       <c r="B128">
-        <f>IF(C128="[-1.8, 0.0, 0.0]",1,(IF(C128="[0.0, 1.8, 0.0]",2,(IF(C128="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C128" t="s">
@@ -10489,7 +10797,7 @@
         <v>1590274217</v>
       </c>
       <c r="B129">
-        <f>IF(C129="[-1.8, 0.0, 0.0]",1,(IF(C129="[0.0, 1.8, 0.0]",2,(IF(C129="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C129" t="s">
@@ -10510,7 +10818,7 @@
         <v>1590274217</v>
       </c>
       <c r="B130">
-        <f>IF(C130="[-1.8, 0.0, 0.0]",1,(IF(C130="[0.0, 1.8, 0.0]",2,(IF(C130="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C130" t="s">
@@ -10531,7 +10839,7 @@
         <v>1590274217</v>
       </c>
       <c r="B131">
-        <f>IF(C131="[-1.8, 0.0, 0.0]",1,(IF(C131="[0.0, 1.8, 0.0]",2,(IF(C131="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B131:B194" si="2">IF(C131="[-1.8, 0.0, 0.0]",1,(IF(C131="[0.0, 1.8, 0.0]",2,(IF(C131="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>2</v>
       </c>
       <c r="C131" t="s">
@@ -10552,7 +10860,7 @@
         <v>1590274217</v>
       </c>
       <c r="B132">
-        <f>IF(C132="[-1.8, 0.0, 0.0]",1,(IF(C132="[0.0, 1.8, 0.0]",2,(IF(C132="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C132" t="s">
@@ -10573,7 +10881,7 @@
         <v>1590274217</v>
       </c>
       <c r="B133">
-        <f>IF(C133="[-1.8, 0.0, 0.0]",1,(IF(C133="[0.0, 1.8, 0.0]",2,(IF(C133="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C133" t="s">
@@ -10594,7 +10902,7 @@
         <v>1590274217</v>
       </c>
       <c r="B134">
-        <f>IF(C134="[-1.8, 0.0, 0.0]",1,(IF(C134="[0.0, 1.8, 0.0]",2,(IF(C134="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C134" t="s">
@@ -10615,7 +10923,7 @@
         <v>1590274217</v>
       </c>
       <c r="B135">
-        <f>IF(C135="[-1.8, 0.0, 0.0]",1,(IF(C135="[0.0, 1.8, 0.0]",2,(IF(C135="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C135" t="s">
@@ -10636,7 +10944,7 @@
         <v>1590274217</v>
       </c>
       <c r="B136">
-        <f>IF(C136="[-1.8, 0.0, 0.0]",1,(IF(C136="[0.0, 1.8, 0.0]",2,(IF(C136="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C136" t="s">
@@ -10657,7 +10965,7 @@
         <v>1590274217</v>
       </c>
       <c r="B137">
-        <f>IF(C137="[-1.8, 0.0, 0.0]",1,(IF(C137="[0.0, 1.8, 0.0]",2,(IF(C137="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C137" t="s">
@@ -10678,7 +10986,7 @@
         <v>1590274217</v>
       </c>
       <c r="B138">
-        <f>IF(C138="[-1.8, 0.0, 0.0]",1,(IF(C138="[0.0, 1.8, 0.0]",2,(IF(C138="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C138" t="s">
@@ -10699,7 +11007,7 @@
         <v>1590274217</v>
       </c>
       <c r="B139">
-        <f>IF(C139="[-1.8, 0.0, 0.0]",1,(IF(C139="[0.0, 1.8, 0.0]",2,(IF(C139="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C139" t="s">
@@ -10720,7 +11028,7 @@
         <v>1590274217</v>
       </c>
       <c r="B140">
-        <f>IF(C140="[-1.8, 0.0, 0.0]",1,(IF(C140="[0.0, 1.8, 0.0]",2,(IF(C140="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C140" t="s">
@@ -10741,7 +11049,7 @@
         <v>1590274217</v>
       </c>
       <c r="B141">
-        <f>IF(C141="[-1.8, 0.0, 0.0]",1,(IF(C141="[0.0, 1.8, 0.0]",2,(IF(C141="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C141" t="s">
@@ -10762,7 +11070,7 @@
         <v>1590274217</v>
       </c>
       <c r="B142">
-        <f>IF(C142="[-1.8, 0.0, 0.0]",1,(IF(C142="[0.0, 1.8, 0.0]",2,(IF(C142="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C142" t="s">
@@ -10783,7 +11091,7 @@
         <v>1590274842</v>
       </c>
       <c r="B143">
-        <f>IF(C143="[-1.8, 0.0, 0.0]",1,(IF(C143="[0.0, 1.8, 0.0]",2,(IF(C143="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C143" t="s">
@@ -10804,7 +11112,7 @@
         <v>1590274842</v>
       </c>
       <c r="B144">
-        <f>IF(C144="[-1.8, 0.0, 0.0]",1,(IF(C144="[0.0, 1.8, 0.0]",2,(IF(C144="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C144" t="s">
@@ -10825,7 +11133,7 @@
         <v>1590274842</v>
       </c>
       <c r="B145">
-        <f>IF(C145="[-1.8, 0.0, 0.0]",1,(IF(C145="[0.0, 1.8, 0.0]",2,(IF(C145="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C145" t="s">
@@ -10846,7 +11154,7 @@
         <v>1590274842</v>
       </c>
       <c r="B146">
-        <f>IF(C146="[-1.8, 0.0, 0.0]",1,(IF(C146="[0.0, 1.8, 0.0]",2,(IF(C146="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C146" t="s">
@@ -10867,7 +11175,7 @@
         <v>1590274842</v>
       </c>
       <c r="B147">
-        <f>IF(C147="[-1.8, 0.0, 0.0]",1,(IF(C147="[0.0, 1.8, 0.0]",2,(IF(C147="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C147" t="s">
@@ -10888,7 +11196,7 @@
         <v>1590274842</v>
       </c>
       <c r="B148">
-        <f>IF(C148="[-1.8, 0.0, 0.0]",1,(IF(C148="[0.0, 1.8, 0.0]",2,(IF(C148="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C148" t="s">
@@ -10909,7 +11217,7 @@
         <v>1590274842</v>
       </c>
       <c r="B149">
-        <f>IF(C149="[-1.8, 0.0, 0.0]",1,(IF(C149="[0.0, 1.8, 0.0]",2,(IF(C149="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C149" t="s">
@@ -10930,7 +11238,7 @@
         <v>1590274842</v>
       </c>
       <c r="B150">
-        <f>IF(C150="[-1.8, 0.0, 0.0]",1,(IF(C150="[0.0, 1.8, 0.0]",2,(IF(C150="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C150" t="s">
@@ -10951,7 +11259,7 @@
         <v>1590274842</v>
       </c>
       <c r="B151">
-        <f>IF(C151="[-1.8, 0.0, 0.0]",1,(IF(C151="[0.0, 1.8, 0.0]",2,(IF(C151="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C151" t="s">
@@ -10972,7 +11280,7 @@
         <v>1590274842</v>
       </c>
       <c r="B152">
-        <f>IF(C152="[-1.8, 0.0, 0.0]",1,(IF(C152="[0.0, 1.8, 0.0]",2,(IF(C152="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C152" t="s">
@@ -10993,7 +11301,7 @@
         <v>1590274842</v>
       </c>
       <c r="B153">
-        <f>IF(C153="[-1.8, 0.0, 0.0]",1,(IF(C153="[0.0, 1.8, 0.0]",2,(IF(C153="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C153" t="s">
@@ -11014,7 +11322,7 @@
         <v>1590274842</v>
       </c>
       <c r="B154">
-        <f>IF(C154="[-1.8, 0.0, 0.0]",1,(IF(C154="[0.0, 1.8, 0.0]",2,(IF(C154="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C154" t="s">
@@ -11035,7 +11343,7 @@
         <v>1590274842</v>
       </c>
       <c r="B155">
-        <f>IF(C155="[-1.8, 0.0, 0.0]",1,(IF(C155="[0.0, 1.8, 0.0]",2,(IF(C155="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C155" t="s">
@@ -11056,7 +11364,7 @@
         <v>1590274842</v>
       </c>
       <c r="B156">
-        <f>IF(C156="[-1.8, 0.0, 0.0]",1,(IF(C156="[0.0, 1.8, 0.0]",2,(IF(C156="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C156" t="s">
@@ -11077,7 +11385,7 @@
         <v>1590274842</v>
       </c>
       <c r="B157">
-        <f>IF(C157="[-1.8, 0.0, 0.0]",1,(IF(C157="[0.0, 1.8, 0.0]",2,(IF(C157="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C157" t="s">
@@ -11098,7 +11406,7 @@
         <v>1590274842</v>
       </c>
       <c r="B158">
-        <f>IF(C158="[-1.8, 0.0, 0.0]",1,(IF(C158="[0.0, 1.8, 0.0]",2,(IF(C158="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C158" t="s">
@@ -11119,7 +11427,7 @@
         <v>1590274842</v>
       </c>
       <c r="B159">
-        <f>IF(C159="[-1.8, 0.0, 0.0]",1,(IF(C159="[0.0, 1.8, 0.0]",2,(IF(C159="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C159" t="s">
@@ -11140,7 +11448,7 @@
         <v>1590274842</v>
       </c>
       <c r="B160">
-        <f>IF(C160="[-1.8, 0.0, 0.0]",1,(IF(C160="[0.0, 1.8, 0.0]",2,(IF(C160="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C160" t="s">
@@ -11161,7 +11469,7 @@
         <v>1590274842</v>
       </c>
       <c r="B161">
-        <f>IF(C161="[-1.8, 0.0, 0.0]",1,(IF(C161="[0.0, 1.8, 0.0]",2,(IF(C161="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C161" t="s">
@@ -11182,7 +11490,7 @@
         <v>1590274842</v>
       </c>
       <c r="B162">
-        <f>IF(C162="[-1.8, 0.0, 0.0]",1,(IF(C162="[0.0, 1.8, 0.0]",2,(IF(C162="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C162" t="s">
@@ -11203,7 +11511,7 @@
         <v>1590275391</v>
       </c>
       <c r="B163">
-        <f>IF(C163="[-1.8, 0.0, 0.0]",1,(IF(C163="[0.0, 1.8, 0.0]",2,(IF(C163="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C163" t="s">
@@ -11224,7 +11532,7 @@
         <v>1590275391</v>
       </c>
       <c r="B164">
-        <f>IF(C164="[-1.8, 0.0, 0.0]",1,(IF(C164="[0.0, 1.8, 0.0]",2,(IF(C164="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C164" t="s">
@@ -11245,7 +11553,7 @@
         <v>1590275391</v>
       </c>
       <c r="B165">
-        <f>IF(C165="[-1.8, 0.0, 0.0]",1,(IF(C165="[0.0, 1.8, 0.0]",2,(IF(C165="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C165" t="s">
@@ -11266,7 +11574,7 @@
         <v>1590275391</v>
       </c>
       <c r="B166">
-        <f>IF(C166="[-1.8, 0.0, 0.0]",1,(IF(C166="[0.0, 1.8, 0.0]",2,(IF(C166="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C166" t="s">
@@ -11287,7 +11595,7 @@
         <v>1590275391</v>
       </c>
       <c r="B167">
-        <f>IF(C167="[-1.8, 0.0, 0.0]",1,(IF(C167="[0.0, 1.8, 0.0]",2,(IF(C167="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C167" t="s">
@@ -11308,7 +11616,7 @@
         <v>1590275391</v>
       </c>
       <c r="B168">
-        <f>IF(C168="[-1.8, 0.0, 0.0]",1,(IF(C168="[0.0, 1.8, 0.0]",2,(IF(C168="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C168" t="s">
@@ -11329,7 +11637,7 @@
         <v>1590275391</v>
       </c>
       <c r="B169">
-        <f>IF(C169="[-1.8, 0.0, 0.0]",1,(IF(C169="[0.0, 1.8, 0.0]",2,(IF(C169="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C169" t="s">
@@ -11350,7 +11658,7 @@
         <v>1590275391</v>
       </c>
       <c r="B170">
-        <f>IF(C170="[-1.8, 0.0, 0.0]",1,(IF(C170="[0.0, 1.8, 0.0]",2,(IF(C170="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C170" t="s">
@@ -11371,7 +11679,7 @@
         <v>1590275391</v>
       </c>
       <c r="B171">
-        <f>IF(C171="[-1.8, 0.0, 0.0]",1,(IF(C171="[0.0, 1.8, 0.0]",2,(IF(C171="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C171" t="s">
@@ -11392,7 +11700,7 @@
         <v>1590275391</v>
       </c>
       <c r="B172">
-        <f>IF(C172="[-1.8, 0.0, 0.0]",1,(IF(C172="[0.0, 1.8, 0.0]",2,(IF(C172="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C172" t="s">
@@ -11413,7 +11721,7 @@
         <v>1590275391</v>
       </c>
       <c r="B173">
-        <f>IF(C173="[-1.8, 0.0, 0.0]",1,(IF(C173="[0.0, 1.8, 0.0]",2,(IF(C173="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C173" t="s">
@@ -11434,7 +11742,7 @@
         <v>1590275391</v>
       </c>
       <c r="B174">
-        <f>IF(C174="[-1.8, 0.0, 0.0]",1,(IF(C174="[0.0, 1.8, 0.0]",2,(IF(C174="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C174" t="s">
@@ -11455,7 +11763,7 @@
         <v>1590275391</v>
       </c>
       <c r="B175">
-        <f>IF(C175="[-1.8, 0.0, 0.0]",1,(IF(C175="[0.0, 1.8, 0.0]",2,(IF(C175="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C175" t="s">
@@ -11476,7 +11784,7 @@
         <v>1590275391</v>
       </c>
       <c r="B176">
-        <f>IF(C176="[-1.8, 0.0, 0.0]",1,(IF(C176="[0.0, 1.8, 0.0]",2,(IF(C176="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C176" t="s">
@@ -11497,7 +11805,7 @@
         <v>1590275391</v>
       </c>
       <c r="B177">
-        <f>IF(C177="[-1.8, 0.0, 0.0]",1,(IF(C177="[0.0, 1.8, 0.0]",2,(IF(C177="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C177" t="s">
@@ -11518,7 +11826,7 @@
         <v>1590275391</v>
       </c>
       <c r="B178">
-        <f>IF(C178="[-1.8, 0.0, 0.0]",1,(IF(C178="[0.0, 1.8, 0.0]",2,(IF(C178="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C178" t="s">
@@ -11539,7 +11847,7 @@
         <v>1590275391</v>
       </c>
       <c r="B179">
-        <f>IF(C179="[-1.8, 0.0, 0.0]",1,(IF(C179="[0.0, 1.8, 0.0]",2,(IF(C179="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C179" t="s">
@@ -11560,7 +11868,7 @@
         <v>1590275391</v>
       </c>
       <c r="B180">
-        <f>IF(C180="[-1.8, 0.0, 0.0]",1,(IF(C180="[0.0, 1.8, 0.0]",2,(IF(C180="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C180" t="s">
@@ -11581,7 +11889,7 @@
         <v>1590275391</v>
       </c>
       <c r="B181">
-        <f>IF(C181="[-1.8, 0.0, 0.0]",1,(IF(C181="[0.0, 1.8, 0.0]",2,(IF(C181="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C181" t="s">
@@ -11602,7 +11910,7 @@
         <v>1590275391</v>
       </c>
       <c r="B182">
-        <f>IF(C182="[-1.8, 0.0, 0.0]",1,(IF(C182="[0.0, 1.8, 0.0]",2,(IF(C182="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C182" t="s">
@@ -11623,7 +11931,7 @@
         <v>1590275931</v>
       </c>
       <c r="B183">
-        <f>IF(C183="[-1.8, 0.0, 0.0]",1,(IF(C183="[0.0, 1.8, 0.0]",2,(IF(C183="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C183" t="s">
@@ -11644,7 +11952,7 @@
         <v>1590275931</v>
       </c>
       <c r="B184">
-        <f>IF(C184="[-1.8, 0.0, 0.0]",1,(IF(C184="[0.0, 1.8, 0.0]",2,(IF(C184="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C184" t="s">
@@ -11665,7 +11973,7 @@
         <v>1590275931</v>
       </c>
       <c r="B185">
-        <f>IF(C185="[-1.8, 0.0, 0.0]",1,(IF(C185="[0.0, 1.8, 0.0]",2,(IF(C185="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C185" t="s">
@@ -11686,7 +11994,7 @@
         <v>1590275931</v>
       </c>
       <c r="B186">
-        <f>IF(C186="[-1.8, 0.0, 0.0]",1,(IF(C186="[0.0, 1.8, 0.0]",2,(IF(C186="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C186" t="s">
@@ -11707,7 +12015,7 @@
         <v>1590275931</v>
       </c>
       <c r="B187">
-        <f>IF(C187="[-1.8, 0.0, 0.0]",1,(IF(C187="[0.0, 1.8, 0.0]",2,(IF(C187="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C187" t="s">
@@ -11728,7 +12036,7 @@
         <v>1590275931</v>
       </c>
       <c r="B188">
-        <f>IF(C188="[-1.8, 0.0, 0.0]",1,(IF(C188="[0.0, 1.8, 0.0]",2,(IF(C188="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C188" t="s">
@@ -11749,7 +12057,7 @@
         <v>1590275931</v>
       </c>
       <c r="B189">
-        <f>IF(C189="[-1.8, 0.0, 0.0]",1,(IF(C189="[0.0, 1.8, 0.0]",2,(IF(C189="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C189" t="s">
@@ -11770,7 +12078,7 @@
         <v>1590275931</v>
       </c>
       <c r="B190">
-        <f>IF(C190="[-1.8, 0.0, 0.0]",1,(IF(C190="[0.0, 1.8, 0.0]",2,(IF(C190="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C190" t="s">
@@ -11791,7 +12099,7 @@
         <v>1590275931</v>
       </c>
       <c r="B191">
-        <f>IF(C191="[-1.8, 0.0, 0.0]",1,(IF(C191="[0.0, 1.8, 0.0]",2,(IF(C191="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C191" t="s">
@@ -11812,7 +12120,7 @@
         <v>1590275931</v>
       </c>
       <c r="B192">
-        <f>IF(C192="[-1.8, 0.0, 0.0]",1,(IF(C192="[0.0, 1.8, 0.0]",2,(IF(C192="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C192" t="s">
@@ -11833,7 +12141,7 @@
         <v>1590275931</v>
       </c>
       <c r="B193">
-        <f>IF(C193="[-1.8, 0.0, 0.0]",1,(IF(C193="[0.0, 1.8, 0.0]",2,(IF(C193="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C193" t="s">
@@ -11854,7 +12162,7 @@
         <v>1590275931</v>
       </c>
       <c r="B194">
-        <f>IF(C194="[-1.8, 0.0, 0.0]",1,(IF(C194="[0.0, 1.8, 0.0]",2,(IF(C194="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C194" t="s">
@@ -11875,7 +12183,7 @@
         <v>1590275931</v>
       </c>
       <c r="B195">
-        <f>IF(C195="[-1.8, 0.0, 0.0]",1,(IF(C195="[0.0, 1.8, 0.0]",2,(IF(C195="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" ref="B195:B258" si="3">IF(C195="[-1.8, 0.0, 0.0]",1,(IF(C195="[0.0, 1.8, 0.0]",2,(IF(C195="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>3</v>
       </c>
       <c r="C195" t="s">
@@ -11896,7 +12204,7 @@
         <v>1590275931</v>
       </c>
       <c r="B196">
-        <f>IF(C196="[-1.8, 0.0, 0.0]",1,(IF(C196="[0.0, 1.8, 0.0]",2,(IF(C196="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C196" t="s">
@@ -11917,7 +12225,7 @@
         <v>1590275931</v>
       </c>
       <c r="B197">
-        <f>IF(C197="[-1.8, 0.0, 0.0]",1,(IF(C197="[0.0, 1.8, 0.0]",2,(IF(C197="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C197" t="s">
@@ -11938,7 +12246,7 @@
         <v>1590275931</v>
       </c>
       <c r="B198">
-        <f>IF(C198="[-1.8, 0.0, 0.0]",1,(IF(C198="[0.0, 1.8, 0.0]",2,(IF(C198="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C198" t="s">
@@ -11959,7 +12267,7 @@
         <v>1590275931</v>
       </c>
       <c r="B199">
-        <f>IF(C199="[-1.8, 0.0, 0.0]",1,(IF(C199="[0.0, 1.8, 0.0]",2,(IF(C199="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C199" t="s">
@@ -11980,7 +12288,7 @@
         <v>1590275931</v>
       </c>
       <c r="B200">
-        <f>IF(C200="[-1.8, 0.0, 0.0]",1,(IF(C200="[0.0, 1.8, 0.0]",2,(IF(C200="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C200" t="s">
@@ -12001,7 +12309,7 @@
         <v>1590275931</v>
       </c>
       <c r="B201">
-        <f>IF(C201="[-1.8, 0.0, 0.0]",1,(IF(C201="[0.0, 1.8, 0.0]",2,(IF(C201="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C201" t="s">
@@ -12022,7 +12330,7 @@
         <v>1590275931</v>
       </c>
       <c r="B202">
-        <f>IF(C202="[-1.8, 0.0, 0.0]",1,(IF(C202="[0.0, 1.8, 0.0]",2,(IF(C202="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C202" t="s">
@@ -12043,7 +12351,7 @@
         <v>1590276411</v>
       </c>
       <c r="B203">
-        <f>IF(C203="[-1.8, 0.0, 0.0]",1,(IF(C203="[0.0, 1.8, 0.0]",2,(IF(C203="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C203" t="s">
@@ -12064,7 +12372,7 @@
         <v>1590276411</v>
       </c>
       <c r="B204">
-        <f>IF(C204="[-1.8, 0.0, 0.0]",1,(IF(C204="[0.0, 1.8, 0.0]",2,(IF(C204="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C204" t="s">
@@ -12085,7 +12393,7 @@
         <v>1590276411</v>
       </c>
       <c r="B205">
-        <f>IF(C205="[-1.8, 0.0, 0.0]",1,(IF(C205="[0.0, 1.8, 0.0]",2,(IF(C205="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C205" t="s">
@@ -12106,7 +12414,7 @@
         <v>1590276411</v>
       </c>
       <c r="B206">
-        <f>IF(C206="[-1.8, 0.0, 0.0]",1,(IF(C206="[0.0, 1.8, 0.0]",2,(IF(C206="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C206" t="s">
@@ -12127,7 +12435,7 @@
         <v>1590276411</v>
       </c>
       <c r="B207">
-        <f>IF(C207="[-1.8, 0.0, 0.0]",1,(IF(C207="[0.0, 1.8, 0.0]",2,(IF(C207="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C207" t="s">
@@ -12148,7 +12456,7 @@
         <v>1590276411</v>
       </c>
       <c r="B208">
-        <f>IF(C208="[-1.8, 0.0, 0.0]",1,(IF(C208="[0.0, 1.8, 0.0]",2,(IF(C208="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C208" t="s">
@@ -12169,7 +12477,7 @@
         <v>1590276411</v>
       </c>
       <c r="B209">
-        <f>IF(C209="[-1.8, 0.0, 0.0]",1,(IF(C209="[0.0, 1.8, 0.0]",2,(IF(C209="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C209" t="s">
@@ -12190,7 +12498,7 @@
         <v>1590276411</v>
       </c>
       <c r="B210">
-        <f>IF(C210="[-1.8, 0.0, 0.0]",1,(IF(C210="[0.0, 1.8, 0.0]",2,(IF(C210="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C210" t="s">
@@ -12211,7 +12519,7 @@
         <v>1590276411</v>
       </c>
       <c r="B211">
-        <f>IF(C211="[-1.8, 0.0, 0.0]",1,(IF(C211="[0.0, 1.8, 0.0]",2,(IF(C211="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C211" t="s">
@@ -12232,7 +12540,7 @@
         <v>1590276411</v>
       </c>
       <c r="B212">
-        <f>IF(C212="[-1.8, 0.0, 0.0]",1,(IF(C212="[0.0, 1.8, 0.0]",2,(IF(C212="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C212" t="s">
@@ -12253,7 +12561,7 @@
         <v>1590276411</v>
       </c>
       <c r="B213">
-        <f>IF(C213="[-1.8, 0.0, 0.0]",1,(IF(C213="[0.0, 1.8, 0.0]",2,(IF(C213="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C213" t="s">
@@ -12274,7 +12582,7 @@
         <v>1590276411</v>
       </c>
       <c r="B214">
-        <f>IF(C214="[-1.8, 0.0, 0.0]",1,(IF(C214="[0.0, 1.8, 0.0]",2,(IF(C214="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C214" t="s">
@@ -12295,7 +12603,7 @@
         <v>1590276411</v>
       </c>
       <c r="B215">
-        <f>IF(C215="[-1.8, 0.0, 0.0]",1,(IF(C215="[0.0, 1.8, 0.0]",2,(IF(C215="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C215" t="s">
@@ -12316,7 +12624,7 @@
         <v>1590276411</v>
       </c>
       <c r="B216">
-        <f>IF(C216="[-1.8, 0.0, 0.0]",1,(IF(C216="[0.0, 1.8, 0.0]",2,(IF(C216="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C216" t="s">
@@ -12337,7 +12645,7 @@
         <v>1590276411</v>
       </c>
       <c r="B217">
-        <f>IF(C217="[-1.8, 0.0, 0.0]",1,(IF(C217="[0.0, 1.8, 0.0]",2,(IF(C217="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C217" t="s">
@@ -12358,7 +12666,7 @@
         <v>1590276411</v>
       </c>
       <c r="B218">
-        <f>IF(C218="[-1.8, 0.0, 0.0]",1,(IF(C218="[0.0, 1.8, 0.0]",2,(IF(C218="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C218" t="s">
@@ -12379,7 +12687,7 @@
         <v>1590276411</v>
       </c>
       <c r="B219">
-        <f>IF(C219="[-1.8, 0.0, 0.0]",1,(IF(C219="[0.0, 1.8, 0.0]",2,(IF(C219="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C219" t="s">
@@ -12400,7 +12708,7 @@
         <v>1590276411</v>
       </c>
       <c r="B220">
-        <f>IF(C220="[-1.8, 0.0, 0.0]",1,(IF(C220="[0.0, 1.8, 0.0]",2,(IF(C220="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C220" t="s">
@@ -12421,7 +12729,7 @@
         <v>1590276411</v>
       </c>
       <c r="B221">
-        <f>IF(C221="[-1.8, 0.0, 0.0]",1,(IF(C221="[0.0, 1.8, 0.0]",2,(IF(C221="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C221" t="s">
@@ -12442,7 +12750,7 @@
         <v>1590276411</v>
       </c>
       <c r="B222">
-        <f>IF(C222="[-1.8, 0.0, 0.0]",1,(IF(C222="[0.0, 1.8, 0.0]",2,(IF(C222="[0.0, -1.8, 0.0]",3,4)))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C222" t="s">
@@ -12529,131 +12837,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="21" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="17">
+      <c r="E2" s="20"/>
+      <c r="F2" s="15">
         <v>1590269808</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <v>1590270259</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <v>1590271053</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="15">
         <v>1590271725</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="16">
         <v>1590272646</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="16">
         <v>1590273485</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="16">
         <v>1590274217</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="16">
         <v>1590274842</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="16">
         <v>1590275391</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="16">
         <v>1590275931</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="16">
         <v>1590276411</v>
       </c>
-      <c r="Q2" s="22"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="A3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="42">
         <f>IF(A3="[-1.8, 0.0, 0.0]",1,(IF(A3="[0.0, 1.8, 0.0]",2,(IF(A3="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="32">
+      <c r="D3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="28">
         <f>AVERAGE(F3:P3)</f>
         <v>104.10112040679998</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="25">
         <v>130.275123119</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <v>85.530791997899996</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>113.817173004</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="25">
         <v>101.996321201</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="25">
         <v>95.800729989999994</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="25">
         <v>112.10701704</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="25">
         <v>91.737994193999995</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="25">
         <v>91.648180007899995</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="25">
         <v>95.790780067399993</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="25">
         <v>99.770552873599996</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="26">
         <v>126.63766098000001</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="27">
         <f>AVERAGE((F3:P3))</f>
         <v>104.10112040679998</v>
       </c>
@@ -12665,11 +12973,11 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="43"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="27">
         <f t="shared" ref="E4:E22" si="0">AVERAGE(F4:P4)</f>
         <v>91.31174180724544</v>
       </c>
@@ -12706,7 +13014,7 @@
       <c r="P4" s="1">
         <v>110.431898117</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="27">
         <f t="shared" ref="Q4:Q22" si="1">AVERAGE((F4:P4))</f>
         <v>91.31174180724544</v>
       </c>
@@ -12718,11 +13026,11 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="43"/>
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="27">
         <f t="shared" si="0"/>
         <v>96.284452698409083</v>
       </c>
@@ -12759,7 +13067,7 @@
       <c r="P5" s="1">
         <v>122.400089025</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="27">
         <f t="shared" si="1"/>
         <v>96.284452698409083</v>
       </c>
@@ -12771,11 +13079,11 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="43"/>
       <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>98.418575265227261</v>
       </c>
@@ -12812,7 +13120,7 @@
       <c r="P6" s="1">
         <v>147.171252966</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="27">
         <f t="shared" si="1"/>
         <v>98.418575265227261</v>
       </c>
@@ -12824,11 +13132,11 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="43"/>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>100.94904455277273</v>
       </c>
@@ -12865,7 +13173,7 @@
       <c r="P7" s="1">
         <v>102.25041007999999</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="27">
         <f t="shared" si="1"/>
         <v>100.94904455277273</v>
       </c>
@@ -12877,14 +13185,14 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="40">
         <f>IF(A8="[-1.8, 0.0, 0.0]",1,(IF(A8="[0.0, 1.8, 0.0]",2,(IF(A8="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>73.647251367536356</v>
       </c>
@@ -12921,7 +13229,7 @@
       <c r="P8" s="1">
         <v>116.585234165</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="27">
         <f t="shared" si="1"/>
         <v>73.647251367536356</v>
       </c>
@@ -12933,11 +13241,11 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="40"/>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <f t="shared" si="0"/>
         <v>71.799806854972744</v>
       </c>
@@ -12974,7 +13282,7 @@
       <c r="P9" s="1">
         <v>101.973330021</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="27">
         <f t="shared" si="1"/>
         <v>71.799806854972744</v>
       </c>
@@ -12986,11 +13294,11 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="40"/>
       <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <f t="shared" si="0"/>
         <v>69.928070891945467</v>
       </c>
@@ -13027,7 +13335,7 @@
       <c r="P10" s="1">
         <v>102.28563714000001</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="27">
         <f t="shared" si="1"/>
         <v>69.928070891945467</v>
       </c>
@@ -13039,11 +13347,11 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="40"/>
       <c r="D11" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <f t="shared" si="0"/>
         <v>71.992180997736369</v>
       </c>
@@ -13080,7 +13388,7 @@
       <c r="P11" s="1">
         <v>110.27520704299999</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="27">
         <f t="shared" si="1"/>
         <v>71.992180997736369</v>
       </c>
@@ -13092,11 +13400,11 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="40"/>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="27">
         <f t="shared" si="0"/>
         <v>68.263941309672717</v>
       </c>
@@ -13133,7 +13441,7 @@
       <c r="P12" s="1">
         <v>77.451961994200005</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="27">
         <f t="shared" si="1"/>
         <v>68.263941309672717</v>
       </c>
@@ -13145,14 +13453,14 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="40">
         <f>IF(A13="[-1.8, 0.0, 0.0]",1,(IF(A13="[0.0, 1.8, 0.0]",2,(IF(A13="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>102.24888138339999</v>
       </c>
@@ -13189,7 +13497,7 @@
       <c r="P13" s="1">
         <v>161.30665016200001</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="27">
         <f t="shared" si="1"/>
         <v>102.24888138339999</v>
       </c>
@@ -13201,11 +13509,11 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="40"/>
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>91.69530055743634</v>
       </c>
@@ -13242,7 +13550,7 @@
       <c r="P14" s="1">
         <v>132.95109605799999</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="27">
         <f t="shared" si="1"/>
         <v>91.69530055743634</v>
       </c>
@@ -13254,11 +13562,11 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="40"/>
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>96.123357989545426</v>
       </c>
@@ -13295,7 +13603,7 @@
       <c r="P15" s="1">
         <v>116.438354015</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="27">
         <f t="shared" si="1"/>
         <v>96.123357989545426</v>
       </c>
@@ -13307,11 +13615,11 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="40"/>
       <c r="D16" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="27">
         <f t="shared" si="0"/>
         <v>91.830835732590899</v>
       </c>
@@ -13348,7 +13656,7 @@
       <c r="P16" s="1">
         <v>128.72297906899999</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="27">
         <f t="shared" si="1"/>
         <v>91.830835732590899</v>
       </c>
@@ -13360,11 +13668,11 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="40"/>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="27">
         <f t="shared" si="0"/>
         <v>90.395967375190921</v>
       </c>
@@ -13401,7 +13709,7 @@
       <c r="P17" s="1">
         <v>118.61865591999999</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="27">
         <f t="shared" si="1"/>
         <v>90.395967375190921</v>
       </c>
@@ -13413,14 +13721,14 @@
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="40">
         <f>IF(A18="[-1.8, 0.0, 0.0]",1,(IF(A18="[0.0, 1.8, 0.0]",2,(IF(A18="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="27">
         <f t="shared" si="0"/>
         <v>77.813444159218179</v>
       </c>
@@ -13457,7 +13765,7 @@
       <c r="P18" s="1">
         <v>159.08414983700001</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="27">
         <f t="shared" si="1"/>
         <v>77.813444159218179</v>
       </c>
@@ -13469,11 +13777,11 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="40"/>
       <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="27">
         <f t="shared" si="0"/>
         <v>71.312395095818175</v>
       </c>
@@ -13510,7 +13818,7 @@
       <c r="P19" s="1">
         <v>91.962561845799996</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="27">
         <f t="shared" si="1"/>
         <v>71.312395095818175</v>
       </c>
@@ -13522,11 +13830,11 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="40"/>
       <c r="D20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="27">
         <f t="shared" si="0"/>
         <v>76.379036404899992</v>
       </c>
@@ -13563,7 +13871,7 @@
       <c r="P20" s="1">
         <v>161.23228216199999</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="27">
         <f t="shared" si="1"/>
         <v>76.379036404899992</v>
       </c>
@@ -13575,11 +13883,11 @@
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="40"/>
       <c r="D21" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="27">
         <f t="shared" si="0"/>
         <v>73.745088273827264</v>
       </c>
@@ -13616,7 +13924,7 @@
       <c r="P21" s="1">
         <v>171.50527501100001</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="27">
         <f t="shared" si="1"/>
         <v>73.745088273827264</v>
       </c>
@@ -13628,11 +13936,11 @@
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="40"/>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="27">
         <f t="shared" si="0"/>
         <v>68.001184550200023</v>
       </c>
@@ -13669,13 +13977,13 @@
       <c r="P22" s="1">
         <v>96.010900020600005</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="27">
         <f t="shared" si="1"/>
         <v>68.001184550200023</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E23" s="22"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -13687,187 +13995,187 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="22"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22">
         <f>SUM(F3:F22)</f>
         <v>1281.7466771605002</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="22">
         <f t="shared" ref="G24:P24" si="2">SUM(G3:G22)</f>
         <v>1522.3242728711</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="22">
         <f t="shared" si="2"/>
         <v>1748.9848747265999</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="22">
         <f t="shared" si="2"/>
         <v>1818.5762512674</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="22">
         <f t="shared" si="2"/>
         <v>1760.1686270242001</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="22">
         <f t="shared" si="2"/>
         <v>1626.9131529330002</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="22">
         <f t="shared" si="2"/>
         <v>1708.6469929230002</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="22">
         <f t="shared" si="2"/>
         <v>1556.0994870662</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="22">
         <f t="shared" si="2"/>
         <v>1614.5366795056</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="22">
         <f t="shared" si="2"/>
         <v>1455.3658533096998</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="22">
         <f t="shared" si="2"/>
         <v>2455.2955856315998</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="21">
         <f>AVERAGE(F24:P24)</f>
         <v>1686.2416776744453</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22">
         <f>AVERAGE(F3:F22)</f>
         <v>64.087333858025005</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <f t="shared" ref="G25:P25" si="3">AVERAGE(G3:G22)</f>
         <v>76.116213643555</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <f t="shared" si="3"/>
         <v>87.44924373632999</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="22">
         <f t="shared" si="3"/>
         <v>90.928812563370002</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <f t="shared" si="3"/>
         <v>88.008431351210007</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="22">
         <f t="shared" si="3"/>
         <v>81.345657646650011</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="22">
         <f t="shared" si="3"/>
         <v>85.432349646150016</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="22">
         <f t="shared" si="3"/>
         <v>77.804974353310001</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="22">
         <f t="shared" si="3"/>
         <v>80.726833975280002</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="22">
         <f t="shared" si="3"/>
         <v>72.768292665484992</v>
       </c>
-      <c r="P25" s="24">
+      <c r="P25" s="22">
         <f t="shared" si="3"/>
         <v>122.76477928157999</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="23">
         <f>AVERAGE(F25:P25)</f>
         <v>84.312083883722266</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22">
         <f>AVEDEV(F3:F22)</f>
         <v>21.086989617350003</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="22">
         <f t="shared" ref="G26:P26" si="4">AVEDEV(G3:G22)</f>
         <v>10.786868250374997</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="22">
         <f t="shared" si="4"/>
         <v>22.878291087207003</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="22">
         <f t="shared" si="4"/>
         <v>13.863534176300002</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="22">
         <f t="shared" si="4"/>
         <v>18.129029619709996</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="22">
         <f t="shared" si="4"/>
         <v>12.869268590205001</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="22">
         <f t="shared" si="4"/>
         <v>12.063992233329998</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="22">
         <f t="shared" si="4"/>
         <v>14.216597803828998</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="22">
         <f t="shared" si="4"/>
         <v>12.762918118208001</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="22">
         <f t="shared" si="4"/>
         <v>20.306649184230494</v>
       </c>
-      <c r="P26" s="24">
+      <c r="P26" s="22">
         <f t="shared" si="4"/>
         <v>20.649311199235999</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="21">
         <f>AVEDEV(F25:P25)</f>
         <v>9.6405813018233868</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="33"/>
+      <c r="F54" s="29"/>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F55"/>
@@ -13903,7 +14211,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13919,135 +14227,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="21" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="17">
+      <c r="E2" s="20"/>
+      <c r="F2" s="15">
         <v>1590269808</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <v>1590270259</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <v>1590271053</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="15">
         <v>1590271725</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="16">
         <v>1590272646</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="16">
         <v>1590273485</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="16">
         <v>1590274217</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="16">
         <v>1590274842</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="16">
         <v>1590275391</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="16">
         <v>1590275931</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="16">
         <v>1590276411</v>
       </c>
-      <c r="Q2" s="22"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="A3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="42">
         <f>IF(A3="[-1.8, 0.0, 0.0]",1,(IF(A3="[0.0, 1.8, 0.0]",2,(IF(A3="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="32">
+      <c r="D3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="28">
         <f>AVERAGE(F3:P3)</f>
         <v>104.10112040679998</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="25">
         <v>130.275123119</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <v>85.530791997899996</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>113.817173004</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="25">
         <v>101.996321201</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="25">
         <v>95.800729989999994</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="25">
         <v>112.10701704</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="25">
         <v>91.737994193999995</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="25">
         <v>91.648180007899995</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="25">
         <v>95.790780067399993</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="25">
         <v>99.770552873599996</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="26">
         <v>126.63766098000001</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="27">
         <f>AVERAGE((F3:P3))</f>
         <v>104.10112040679998</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="25">
         <f>AVERAGE(Q3:Q7)</f>
         <v>98.212986946090908</v>
       </c>
@@ -14059,11 +14367,11 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="43"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="27">
         <f t="shared" ref="E4:E22" si="0">AVERAGE(F4:P4)</f>
         <v>91.31174180724544</v>
       </c>
@@ -14100,7 +14408,7 @@
       <c r="P4" s="1">
         <v>110.431898117</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="27">
         <f t="shared" ref="Q4:Q22" si="1">AVERAGE((F4:P4))</f>
         <v>91.31174180724544</v>
       </c>
@@ -14113,11 +14421,11 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="43"/>
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="27">
         <f t="shared" si="0"/>
         <v>96.284452698409083</v>
       </c>
@@ -14154,7 +14462,7 @@
       <c r="P5" s="1">
         <v>122.400089025</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="27">
         <f t="shared" si="1"/>
         <v>96.284452698409083</v>
       </c>
@@ -14167,11 +14475,11 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="43"/>
       <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>98.418575265227261</v>
       </c>
@@ -14208,7 +14516,7 @@
       <c r="P6" s="1">
         <v>147.171252966</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="27">
         <f t="shared" si="1"/>
         <v>98.418575265227261</v>
       </c>
@@ -14221,11 +14529,11 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="43"/>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>100.94904455277273</v>
       </c>
@@ -14262,7 +14570,7 @@
       <c r="P7" s="1">
         <v>102.25041007999999</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="27">
         <f t="shared" si="1"/>
         <v>100.94904455277273</v>
       </c>
@@ -14275,14 +14583,14 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="40">
         <f>IF(A8="[-1.8, 0.0, 0.0]",1,(IF(A8="[0.0, 1.8, 0.0]",2,(IF(A8="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>73.647251367536356</v>
       </c>
@@ -14319,12 +14627,12 @@
       <c r="P8" s="1">
         <v>116.585234165</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="27">
         <f t="shared" si="1"/>
         <v>73.647251367536356</v>
       </c>
-      <c r="R8" s="27">
-        <f t="shared" ref="R8:R18" si="2">AVERAGE(Q8:Q12)</f>
+      <c r="R8" s="25">
+        <f t="shared" ref="R8:R13" si="2">AVERAGE(Q8:Q12)</f>
         <v>71.12625028437273</v>
       </c>
     </row>
@@ -14335,11 +14643,11 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="40"/>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <f t="shared" si="0"/>
         <v>71.799806854972744</v>
       </c>
@@ -14376,7 +14684,7 @@
       <c r="P9" s="1">
         <v>101.973330021</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="27">
         <f t="shared" si="1"/>
         <v>71.799806854972744</v>
       </c>
@@ -14389,11 +14697,11 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="40"/>
       <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <f t="shared" si="0"/>
         <v>69.928070891945467</v>
       </c>
@@ -14430,7 +14738,7 @@
       <c r="P10" s="1">
         <v>102.28563714000001</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="27">
         <f t="shared" si="1"/>
         <v>69.928070891945467</v>
       </c>
@@ -14443,11 +14751,11 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="40"/>
       <c r="D11" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <f t="shared" si="0"/>
         <v>71.992180997736369</v>
       </c>
@@ -14484,7 +14792,7 @@
       <c r="P11" s="1">
         <v>110.27520704299999</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="27">
         <f t="shared" si="1"/>
         <v>71.992180997736369</v>
       </c>
@@ -14497,11 +14805,11 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="40"/>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="27">
         <f t="shared" si="0"/>
         <v>68.263941309672717</v>
       </c>
@@ -14538,7 +14846,7 @@
       <c r="P12" s="1">
         <v>77.451961994200005</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="27">
         <f t="shared" si="1"/>
         <v>68.263941309672717</v>
       </c>
@@ -14551,14 +14859,14 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="40">
         <f>IF(A13="[-1.8, 0.0, 0.0]",1,(IF(A13="[0.0, 1.8, 0.0]",2,(IF(A13="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>102.24888138339999</v>
       </c>
@@ -14595,11 +14903,11 @@
       <c r="P13" s="1">
         <v>161.30665016200001</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="27">
         <f t="shared" si="1"/>
         <v>102.24888138339999</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="25">
         <f t="shared" si="2"/>
         <v>94.458868607632724</v>
       </c>
@@ -14611,11 +14919,11 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="40"/>
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>91.69530055743634</v>
       </c>
@@ -14652,7 +14960,7 @@
       <c r="P14" s="1">
         <v>132.95109605799999</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="27">
         <f t="shared" si="1"/>
         <v>91.69530055743634</v>
       </c>
@@ -14665,11 +14973,11 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="40"/>
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>96.123357989545426</v>
       </c>
@@ -14706,7 +15014,7 @@
       <c r="P15" s="1">
         <v>116.438354015</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="27">
         <f t="shared" si="1"/>
         <v>96.123357989545426</v>
       </c>
@@ -14719,11 +15027,11 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="40"/>
       <c r="D16" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="27">
         <f t="shared" si="0"/>
         <v>91.830835732590899</v>
       </c>
@@ -14760,7 +15068,7 @@
       <c r="P16" s="1">
         <v>128.72297906899999</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="27">
         <f t="shared" si="1"/>
         <v>91.830835732590899</v>
       </c>
@@ -14773,11 +15081,11 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="40"/>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="27">
         <f t="shared" si="0"/>
         <v>90.395967375190921</v>
       </c>
@@ -14814,7 +15122,7 @@
       <c r="P17" s="1">
         <v>118.61865591999999</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="27">
         <f t="shared" si="1"/>
         <v>90.395967375190921</v>
       </c>
@@ -14827,14 +15135,14 @@
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="40">
         <f>IF(A18="[-1.8, 0.0, 0.0]",1,(IF(A18="[0.0, 1.8, 0.0]",2,(IF(A18="[0.0, -1.8, 0.0]",3,4)))))</f>
         <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="27">
         <f t="shared" si="0"/>
         <v>77.813444159218179</v>
       </c>
@@ -14871,11 +15179,11 @@
       <c r="P18" s="1">
         <v>159.08414983700001</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="27">
         <f t="shared" si="1"/>
         <v>77.813444159218179</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="25">
         <f>AVERAGE(Q18:Q22)</f>
         <v>73.450229696792718</v>
       </c>
@@ -14887,11 +15195,11 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="40"/>
       <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="27">
         <f t="shared" si="0"/>
         <v>71.312395095818175</v>
       </c>
@@ -14928,7 +15236,7 @@
       <c r="P19" s="1">
         <v>91.962561845799996</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="27">
         <f t="shared" si="1"/>
         <v>71.312395095818175</v>
       </c>
@@ -14940,11 +15248,11 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="40"/>
       <c r="D20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="27">
         <f t="shared" si="0"/>
         <v>76.379036404899992</v>
       </c>
@@ -14981,7 +15289,7 @@
       <c r="P20" s="1">
         <v>161.23228216199999</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="27">
         <f t="shared" si="1"/>
         <v>76.379036404899992</v>
       </c>
@@ -14993,11 +15301,11 @@
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="40"/>
       <c r="D21" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="27">
         <f t="shared" si="0"/>
         <v>73.745088273827264</v>
       </c>
@@ -15034,7 +15342,7 @@
       <c r="P21" s="1">
         <v>171.50527501100001</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="27">
         <f t="shared" si="1"/>
         <v>73.745088273827264</v>
       </c>
@@ -15046,11 +15354,11 @@
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="40"/>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="27">
         <f t="shared" si="0"/>
         <v>68.001184550200023</v>
       </c>
@@ -15087,13 +15395,13 @@
       <c r="P22" s="1">
         <v>96.010900020600005</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="27">
         <f t="shared" si="1"/>
         <v>68.001184550200023</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E23" s="22"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -15105,191 +15413,191 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="22"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22">
         <f>SUM(F3:F22)</f>
         <v>1281.7466771605002</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="22">
         <f t="shared" ref="G24:P24" si="3">SUM(G3:G22)</f>
         <v>1522.3242728711</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="22">
         <f t="shared" si="3"/>
         <v>1748.9848747265999</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="22">
         <f t="shared" si="3"/>
         <v>1818.5762512674</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="22">
         <f t="shared" si="3"/>
         <v>1760.1686270242001</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="22">
         <f t="shared" si="3"/>
         <v>1626.9131529330002</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="22">
         <f t="shared" si="3"/>
         <v>1708.6469929230002</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="22">
         <f t="shared" si="3"/>
         <v>1556.0994870662</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="22">
         <f t="shared" si="3"/>
         <v>1614.5366795056</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="22">
         <f t="shared" si="3"/>
         <v>1455.3658533096998</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="22">
         <f t="shared" si="3"/>
         <v>2455.2955856315998</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="21">
         <f>AVERAGE(F24:P24)</f>
         <v>1686.2416776744453</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22">
         <f>AVERAGE(F3:F22)</f>
         <v>64.087333858025005</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <f t="shared" ref="G25:P25" si="4">AVERAGE(G3:G22)</f>
         <v>76.116213643555</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <f t="shared" si="4"/>
         <v>87.44924373632999</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="22">
         <f t="shared" si="4"/>
         <v>90.928812563370002</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <f t="shared" si="4"/>
         <v>88.008431351210007</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="22">
         <f t="shared" si="4"/>
         <v>81.345657646650011</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="22">
         <f t="shared" si="4"/>
         <v>85.432349646150016</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="22">
         <f t="shared" si="4"/>
         <v>77.804974353310001</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="22">
         <f t="shared" si="4"/>
         <v>80.726833975280002</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="22">
         <f t="shared" si="4"/>
         <v>72.768292665484992</v>
       </c>
-      <c r="P25" s="24">
+      <c r="P25" s="22">
         <f t="shared" si="4"/>
         <v>122.76477928157999</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="23">
         <f>AVERAGE(F25:P25)</f>
         <v>84.312083883722266</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22">
         <f>AVEDEV(F3:F22)</f>
         <v>21.086989617350003</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="22">
         <f t="shared" ref="G26:P26" si="5">AVEDEV(G3:G22)</f>
         <v>10.786868250374997</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>22.878291087207003</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="22">
         <f t="shared" si="5"/>
         <v>13.863534176300002</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="22">
         <f t="shared" si="5"/>
         <v>18.129029619709996</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="22">
         <f t="shared" si="5"/>
         <v>12.869268590205001</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="22">
         <f t="shared" si="5"/>
         <v>12.063992233329998</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="22">
         <f t="shared" si="5"/>
         <v>14.216597803828998</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="22">
         <f t="shared" si="5"/>
         <v>12.762918118208001</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="22">
         <f t="shared" si="5"/>
         <v>20.306649184230494</v>
       </c>
-      <c r="P26" s="24">
+      <c r="P26" s="22">
         <f t="shared" si="5"/>
         <v>20.649311199235999</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="21">
         <f>AVEDEV(F25:P25)</f>
         <v>9.6405813018233868</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="35"/>
-      <c r="C30" s="36" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="8">
@@ -15298,15 +15606,15 @@
       <c r="D31" s="8">
         <v>2</v>
       </c>
-      <c r="E31" s="39">
-        <v>3</v>
-      </c>
-      <c r="F31" s="40">
+      <c r="E31" s="33">
+        <v>3</v>
+      </c>
+      <c r="F31" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="9">
@@ -15318,12 +15626,12 @@
       <c r="E32" s="9">
         <v>102.24888138339999</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="35">
         <v>77.813444159218179</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="9">
@@ -15335,12 +15643,12 @@
       <c r="E33" s="9">
         <v>91.69530055743634</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="35">
         <v>71.312395095818175</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="9">
@@ -15352,12 +15660,12 @@
       <c r="E34" s="9">
         <v>96.123357989545426</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="35">
         <v>76.379036404899992</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="9">
@@ -15369,29 +15677,29 @@
       <c r="E35" s="9">
         <v>91.830835732590899</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="35">
         <v>73.745088273827264</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="43">
+      <c r="B36" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="37">
         <v>100.94904455277273</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="37">
         <v>68.263941309672717</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="37">
         <v>90.395967375190921</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="38">
         <v>68.001184550200023</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="1">
@@ -15406,7 +15714,7 @@
         <f>R13</f>
         <v>94.458868607632724</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="30">
         <f>R18</f>
         <v>73.450229696792718</v>
       </c>
